--- a/ofc/estimates/Indrayani mandir 1200000/morning V_final for 1200000  (Autosaved).xlsx
+++ b/ofc/estimates/Indrayani mandir 1200000/morning V_final for 1200000  (Autosaved).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="final" sheetId="3" state="hidden" r:id="rId1"/>
@@ -17,26 +17,27 @@
     <sheet name="V" sheetId="10" r:id="rId8"/>
     <sheet name="include wxclude wod" sheetId="11" state="hidden" r:id="rId9"/>
     <sheet name="roof and tundal" sheetId="15" r:id="rId10"/>
-    <sheet name="Window only" sheetId="12" r:id="rId11"/>
-    <sheet name="Door only" sheetId="13" r:id="rId12"/>
-    <sheet name="dachi appa only" sheetId="14" r:id="rId13"/>
+    <sheet name="final valuation merged" sheetId="16" r:id="rId11"/>
+    <sheet name="Window only" sheetId="12" r:id="rId12"/>
+    <sheet name="Door only" sheetId="13" r:id="rId13"/>
+    <sheet name="dachi appa only" sheetId="14" r:id="rId14"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId14"/>
     <externalReference r:id="rId15"/>
+    <externalReference r:id="rId16"/>
   </externalReferences>
   <definedNames>
     <definedName name="description_103">[1]Abstract!$B$16</definedName>
     <definedName name="description_124" localSheetId="5">#REF!</definedName>
+    <definedName name="description_124" localSheetId="13">#REF!</definedName>
     <definedName name="description_124" localSheetId="12">#REF!</definedName>
-    <definedName name="description_124" localSheetId="11">#REF!</definedName>
     <definedName name="description_124" localSheetId="0">#REF!</definedName>
     <definedName name="description_124" localSheetId="8">#REF!</definedName>
     <definedName name="description_124" localSheetId="1">#REF!</definedName>
     <definedName name="description_124" localSheetId="2">#REF!</definedName>
     <definedName name="description_124" localSheetId="9">#REF!</definedName>
     <definedName name="description_124" localSheetId="7">#REF!</definedName>
-    <definedName name="description_124" localSheetId="10">#REF!</definedName>
+    <definedName name="description_124" localSheetId="11">#REF!</definedName>
     <definedName name="description_124" localSheetId="6">#REF!</definedName>
     <definedName name="description_124" localSheetId="4">#REF!</definedName>
     <definedName name="description_124" localSheetId="3">#REF!</definedName>
@@ -49,26 +50,26 @@
     <definedName name="description_759">[1]Abstract!$B$278</definedName>
     <definedName name="description_783">[1]Abstract!$B$301</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'copper roof'!$A$1:$K$111</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="12">'dachi appa only'!$A$1:$K$79</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="11">'Door only'!$A$1:$K$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="13">'dachi appa only'!$A$1:$K$79</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">'Door only'!$A$1:$K$58</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">final!$A$1:$K$272</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'include wxclude wod'!$A$1:$K$165</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">quotation!$A$6:$K$246</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'quotation (2)'!$A$6:$K$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'roof and tundal'!$A$1:$K$93</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">V!$A$1:$K$165</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="10">'Window only'!$A$1:$K$72</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">'Window only'!$A$1:$K$72</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'with brick'!$A$1:$K$174</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'with centre wood'!$A$6:$K$81</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'with plastic felt'!$A$6:$K$80</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">'copper roof'!$1:$8</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="12">'dachi appa only'!$1:$8</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="11">'Door only'!$1:$8</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="13">'dachi appa only'!$1:$8</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="12">'Door only'!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">final!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="8">'include wxclude wod'!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="9">'roof and tundal'!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="7">V!$1:$8</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="10">'Window only'!$1:$8</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="11">'Window only'!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="6">'with brick'!$1:$8</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -423,6 +424,84 @@
     <author>Author</author>
   </authors>
   <commentList>
+    <comment ref="D43" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+killa thokna lai bich bich maa rakhne kath baala</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D47" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+edge ko wood</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C142" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+at top also</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
     <comment ref="C55" authorId="0" shapeId="0">
       <text>
         <r>
@@ -452,7 +531,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="175">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -989,6 +1068,15 @@
   </si>
   <si>
     <t>1" thick salwood planking works with 3 side plaining not &lt;4" width</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>20 gauge Brass sheet gajur making and fixing on roof with Gajur size height 24" approx. wt. 3.5kg</t>
+  </si>
+  <si>
+    <t>-for door</t>
   </si>
 </sst>
 </file>
@@ -1532,46 +1620,6 @@
     <xf numFmtId="2" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1587,6 +1635,46 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2063,113 +2151,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="121" t="s">
+      <c r="A5" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="117" t="s">
+      <c r="A6" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="117"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="113" t="s">
+      <c r="H6" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="113"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="113" t="s">
+      <c r="H7" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
     </row>
     <row r="8" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -7998,11 +8086,11 @@
       <c r="B267" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C267" s="110">
+      <c r="C267" s="127">
         <f>J265</f>
         <v>1886794.504041455</v>
       </c>
-      <c r="D267" s="111"/>
+      <c r="D267" s="128"/>
       <c r="E267" s="33">
         <v>100</v>
       </c>
@@ -8017,21 +8105,21 @@
       <c r="B268" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="C268" s="114">
+      <c r="C268" s="130">
         <v>2250000</v>
       </c>
-      <c r="D268" s="115"/>
+      <c r="D268" s="131"/>
       <c r="E268" s="33"/>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B269" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="C269" s="114">
+      <c r="C269" s="130">
         <f>C268-C271-C272</f>
         <v>2137500</v>
       </c>
-      <c r="D269" s="115"/>
+      <c r="D269" s="131"/>
       <c r="E269" s="33">
         <f>C269/C267*100</f>
         <v>113.28737684053785</v>
@@ -8041,11 +8129,11 @@
       <c r="B270" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="C270" s="116">
+      <c r="C270" s="132">
         <f>C267-C269</f>
         <v>-250705.49595854501</v>
       </c>
-      <c r="D270" s="116"/>
+      <c r="D270" s="132"/>
       <c r="E270" s="33">
         <f>100-E269</f>
         <v>-13.287376840537846</v>
@@ -8055,11 +8143,11 @@
       <c r="B271" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="C271" s="110">
+      <c r="C271" s="127">
         <f>C268*0.03</f>
         <v>67500</v>
       </c>
-      <c r="D271" s="111"/>
+      <c r="D271" s="128"/>
       <c r="E271" s="33">
         <v>3</v>
       </c>
@@ -8068,24 +8156,17 @@
       <c r="B272" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="C272" s="110">
+      <c r="C272" s="127">
         <f>C268*0.02</f>
         <v>45000</v>
       </c>
-      <c r="D272" s="111"/>
+      <c r="D272" s="128"/>
       <c r="E272" s="33">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C271:D271"/>
     <mergeCell ref="C272:D272"/>
     <mergeCell ref="A7:F7"/>
@@ -8094,6 +8175,13 @@
     <mergeCell ref="C268:D268"/>
     <mergeCell ref="C269:D269"/>
     <mergeCell ref="C270:D270"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8111,8 +8199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="99" zoomScaleNormal="99" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="O88" sqref="O88"/>
+    <sheetView topLeftCell="A72" zoomScale="99" zoomScaleNormal="99" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76:J78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8127,124 +8215,124 @@
     <col min="8" max="8" width="5.28515625" style="71" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5703125" style="71" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5703125" style="71" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
       <c r="M1"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
       <c r="M2"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
       <c r="M3"/>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
       <c r="M4"/>
     </row>
     <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="121" t="s">
+      <c r="A5" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="117" t="s">
+      <c r="A6" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="117"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="113" t="s">
+      <c r="H6" s="122" t="s">
         <v>130</v>
       </c>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="113"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="129" t="s">
         <v>147</v>
       </c>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="113" t="s">
+      <c r="H7" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
     </row>
     <row r="8" spans="1:19" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -10079,12 +10167,12 @@
       <c r="B84" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C84" s="116">
+      <c r="C84" s="132">
         <f>J82</f>
         <v>809060.47676870949</v>
       </c>
-      <c r="D84" s="116"/>
-      <c r="E84" s="116"/>
+      <c r="D84" s="132"/>
+      <c r="E84" s="132"/>
       <c r="F84" s="65"/>
       <c r="G84" s="66"/>
       <c r="H84" s="65"/>
@@ -10097,33 +10185,33 @@
       <c r="B85" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="C85" s="123">
+      <c r="C85" s="133">
         <f>C84*0.13</f>
         <v>105177.86197993223</v>
       </c>
-      <c r="D85" s="123"/>
-      <c r="E85" s="123"/>
+      <c r="D85" s="133"/>
+      <c r="E85" s="133"/>
     </row>
     <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B86" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="C86" s="123">
+      <c r="C86" s="133">
         <f>C84+C85</f>
         <v>914238.33874864178</v>
       </c>
-      <c r="D86" s="123"/>
-      <c r="E86" s="123"/>
+      <c r="D86" s="133"/>
+      <c r="E86" s="133"/>
     </row>
     <row r="88" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B88" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C88" s="110">
+      <c r="C88" s="127">
         <f>J82</f>
         <v>809060.47676870949</v>
       </c>
-      <c r="D88" s="111"/>
+      <c r="D88" s="128"/>
       <c r="E88" s="33">
         <v>100</v>
       </c>
@@ -10143,12 +10231,12 @@
       <c r="B89" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="C89" s="114">
+      <c r="C89" s="130">
         <v>1200000</v>
       </c>
-      <c r="D89" s="115"/>
+      <c r="D89" s="131"/>
       <c r="E89" s="33"/>
-      <c r="L89" s="132">
+      <c r="L89" s="118">
         <f>J82+'Door only'!J47+'Window only'!J61+'dachi appa only'!J68</f>
         <v>1291918.4293308684</v>
       </c>
@@ -10157,11 +10245,11 @@
       <c r="B90" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="C90" s="114">
+      <c r="C90" s="130">
         <f>C89-C92-C93</f>
         <v>1140000</v>
       </c>
-      <c r="D90" s="115"/>
+      <c r="D90" s="131"/>
       <c r="E90" s="33">
         <f>C90/C88*100</f>
         <v>140.90417623080828</v>
@@ -10171,11 +10259,11 @@
       <c r="B91" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="C91" s="116">
+      <c r="C91" s="132">
         <f>C88-C90</f>
         <v>-330939.52323129051</v>
       </c>
-      <c r="D91" s="116"/>
+      <c r="D91" s="132"/>
       <c r="E91" s="33">
         <f>100-E90</f>
         <v>-40.904176230808275</v>
@@ -10185,11 +10273,11 @@
       <c r="B92" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="C92" s="110">
+      <c r="C92" s="127">
         <f>C89*0.03</f>
         <v>36000</v>
       </c>
-      <c r="D92" s="111"/>
+      <c r="D92" s="128"/>
       <c r="E92" s="33">
         <v>3</v>
       </c>
@@ -10198,17 +10286,22 @@
       <c r="B93" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="C93" s="110">
+      <c r="C93" s="127">
         <f>C89*0.02</f>
         <v>24000</v>
       </c>
-      <c r="D93" s="111"/>
+      <c r="D93" s="128"/>
       <c r="E93" s="33">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
     <mergeCell ref="C88:D88"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
@@ -10222,11 +10315,6 @@
     <mergeCell ref="C84:E84"/>
     <mergeCell ref="C85:E85"/>
     <mergeCell ref="C86:E86"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C93:D93"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10242,11 +10330,3659 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O166"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A156" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J169" sqref="J169"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="124" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="125" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="125" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+    </row>
+    <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="126" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="126"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="121" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="122" t="s">
+        <v>130</v>
+      </c>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="129" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="129"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="122" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>1</v>
+      </c>
+      <c r="B8" s="91" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="82"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="16"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="81" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="82">
+        <v>1</v>
+      </c>
+      <c r="D9" s="92">
+        <f>5.23+0.025*2</f>
+        <v>5.28</v>
+      </c>
+      <c r="E9" s="83">
+        <v>3.31</v>
+      </c>
+      <c r="F9" s="83"/>
+      <c r="G9" s="79">
+        <f t="shared" ref="G9:G20" si="0">PRODUCT(C9:F9)</f>
+        <v>17.476800000000001</v>
+      </c>
+      <c r="H9" s="84"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="16"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="81" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="82">
+        <v>1</v>
+      </c>
+      <c r="D10" s="92">
+        <f>200/12/3.281</f>
+        <v>5.0797521080971251</v>
+      </c>
+      <c r="E10" s="83">
+        <v>3.31</v>
+      </c>
+      <c r="F10" s="83"/>
+      <c r="G10" s="79">
+        <f t="shared" si="0"/>
+        <v>16.813979477801485</v>
+      </c>
+      <c r="H10" s="84"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="16"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="81" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="82">
+        <v>4</v>
+      </c>
+      <c r="D11" s="92">
+        <f>204/12/3.281</f>
+        <v>5.1813471502590671</v>
+      </c>
+      <c r="E11" s="83">
+        <f>(E43*2+F43)</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="F11" s="83"/>
+      <c r="G11" s="79">
+        <f t="shared" si="0"/>
+        <v>3.1088082901554408</v>
+      </c>
+      <c r="H11" s="84"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="16"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="82">
+        <v>2</v>
+      </c>
+      <c r="D12" s="92">
+        <f>196/12/3.281</f>
+        <v>4.9781570659351821</v>
+      </c>
+      <c r="E12" s="83">
+        <v>0.15</v>
+      </c>
+      <c r="F12" s="83"/>
+      <c r="G12" s="79">
+        <f t="shared" si="0"/>
+        <v>1.4934471197805546</v>
+      </c>
+      <c r="H12" s="84"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="16"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="82">
+        <v>4</v>
+      </c>
+      <c r="D13" s="92">
+        <f>196/12/3.281</f>
+        <v>4.9781570659351821</v>
+      </c>
+      <c r="E13" s="83">
+        <v>0.15</v>
+      </c>
+      <c r="F13" s="83"/>
+      <c r="G13" s="79">
+        <f t="shared" si="0"/>
+        <v>2.9868942395611091</v>
+      </c>
+      <c r="H13" s="84"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="16"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="82">
+        <v>2</v>
+      </c>
+      <c r="D14" s="92">
+        <f>190/12/3.281</f>
+        <v>4.8257645026922686</v>
+      </c>
+      <c r="E14" s="83">
+        <v>0.15</v>
+      </c>
+      <c r="F14" s="83"/>
+      <c r="G14" s="79">
+        <f t="shared" si="0"/>
+        <v>1.4477293508076805</v>
+      </c>
+      <c r="H14" s="84"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="16"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="81" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" s="82">
+        <v>2</v>
+      </c>
+      <c r="D15" s="92">
+        <f>17/12/3.281</f>
+        <v>0.43177892918825561</v>
+      </c>
+      <c r="E15" s="83">
+        <v>0.3</v>
+      </c>
+      <c r="F15" s="83"/>
+      <c r="G15" s="79">
+        <f t="shared" si="0"/>
+        <v>0.25906735751295334</v>
+      </c>
+      <c r="H15" s="84"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="16"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="82">
+        <v>2</v>
+      </c>
+      <c r="D16" s="92">
+        <f>40/12/3.281</f>
+        <v>1.0159504216194251</v>
+      </c>
+      <c r="E16" s="83">
+        <v>0.3</v>
+      </c>
+      <c r="F16" s="83"/>
+      <c r="G16" s="79">
+        <f t="shared" si="0"/>
+        <v>0.60957025297165501</v>
+      </c>
+      <c r="H16" s="84"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="16"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="82">
+        <v>1</v>
+      </c>
+      <c r="D17" s="92">
+        <f>40/12/3.281</f>
+        <v>1.0159504216194251</v>
+      </c>
+      <c r="E17" s="83">
+        <f>17/12/3.281</f>
+        <v>0.43177892918825561</v>
+      </c>
+      <c r="F17" s="83"/>
+      <c r="G17" s="79">
+        <f t="shared" si="0"/>
+        <v>0.43866598515519217</v>
+      </c>
+      <c r="H17" s="84"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="16"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="81" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="82">
+        <v>2</v>
+      </c>
+      <c r="D18" s="92">
+        <v>1.2</v>
+      </c>
+      <c r="E18" s="83">
+        <v>0.23</v>
+      </c>
+      <c r="F18" s="83"/>
+      <c r="G18" s="79">
+        <f t="shared" si="0"/>
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="H18" s="84"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="16"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="81" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" s="82">
+        <v>1</v>
+      </c>
+      <c r="D19" s="92">
+        <f>11/3.281</f>
+        <v>3.3526363913441024</v>
+      </c>
+      <c r="E19" s="83">
+        <f>8/12/3.281</f>
+        <v>0.20319008432388497</v>
+      </c>
+      <c r="F19" s="83"/>
+      <c r="G19" s="79">
+        <f t="shared" si="0"/>
+        <v>0.6812224710645336</v>
+      </c>
+      <c r="H19" s="84"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="16"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="82">
+        <v>1</v>
+      </c>
+      <c r="D20" s="92">
+        <v>3.31</v>
+      </c>
+      <c r="E20" s="83">
+        <f>8/12/3.281</f>
+        <v>0.20319008432388497</v>
+      </c>
+      <c r="F20" s="83"/>
+      <c r="G20" s="79">
+        <f t="shared" si="0"/>
+        <v>0.6725591791120592</v>
+      </c>
+      <c r="H20" s="84"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="16"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="78"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="88">
+        <f>SUM(G9:G20)</f>
+        <v>46.540743723922667</v>
+      </c>
+      <c r="H21" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="89">
+        <f>14913.64/1.15</f>
+        <v>12968.382608695652</v>
+      </c>
+      <c r="J21" s="90">
+        <f>G21*I21</f>
+        <v>603558.17150508007</v>
+      </c>
+      <c r="K21" s="30"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="B22" s="87" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="78"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="90">
+        <f>0.13*G21*(95368.8)/10</f>
+        <v>57700.953440754478</v>
+      </c>
+      <c r="K22" s="30"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="89"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="30"/>
+    </row>
+    <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="25">
+        <v>2</v>
+      </c>
+      <c r="B24" s="77" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="78"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="30"/>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="82">
+        <f>C19</f>
+        <v>1</v>
+      </c>
+      <c r="D25" s="83">
+        <f>D19</f>
+        <v>3.3526363913441024</v>
+      </c>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="79">
+        <f>PRODUCT(C25:F25)</f>
+        <v>3.3526363913441024</v>
+      </c>
+      <c r="H25" s="84"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="16"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="82">
+        <f>C20</f>
+        <v>1</v>
+      </c>
+      <c r="D26" s="83">
+        <f>D20</f>
+        <v>3.31</v>
+      </c>
+      <c r="E26" s="83"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="79">
+        <f>PRODUCT(C26:F26)</f>
+        <v>3.31</v>
+      </c>
+      <c r="H26" s="84"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="16"/>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="25"/>
+      <c r="B27" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="78"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="88">
+        <f>SUM(G25:G26)</f>
+        <v>6.6626363913441029</v>
+      </c>
+      <c r="H27" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="I27" s="89">
+        <f>2563.07/1.15</f>
+        <v>2228.7565217391307</v>
+      </c>
+      <c r="J27" s="90">
+        <f>G27*I27</f>
+        <v>14849.394309184636</v>
+      </c>
+      <c r="K27" s="30"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="25"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="30"/>
+    </row>
+    <row r="29" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="25">
+        <v>5</v>
+      </c>
+      <c r="B29" s="77" t="s">
+        <v>173</v>
+      </c>
+      <c r="C29" s="78">
+        <v>1</v>
+      </c>
+      <c r="D29" s="79">
+        <v>3.5</v>
+      </c>
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="79">
+        <f>PRODUCT(C29:F29)</f>
+        <v>3.5</v>
+      </c>
+      <c r="H29" s="79"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="30"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="25"/>
+      <c r="B30" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="78"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="88">
+        <f>SUM(G29:G29)</f>
+        <v>3.5</v>
+      </c>
+      <c r="H30" s="88" t="s">
+        <v>105</v>
+      </c>
+      <c r="I30" s="88">
+        <f>4289.73/1.15</f>
+        <v>3730.2</v>
+      </c>
+      <c r="J30" s="90">
+        <f>G29*I30</f>
+        <v>13055.699999999999</v>
+      </c>
+      <c r="K30" s="30"/>
+    </row>
+    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="25"/>
+      <c r="B31" s="87" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="78"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="90">
+        <f>0.13*G30*(7326/5)</f>
+        <v>666.66600000000005</v>
+      </c>
+      <c r="K31" s="30"/>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="25"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="30"/>
+    </row>
+    <row r="33" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="25">
+        <v>6</v>
+      </c>
+      <c r="B33" s="77" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" s="78">
+        <v>2</v>
+      </c>
+      <c r="D33" s="79">
+        <v>2</v>
+      </c>
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="79">
+        <f>PRODUCT(C33:F33)</f>
+        <v>4</v>
+      </c>
+      <c r="H33" s="79"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="30"/>
+    </row>
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="25"/>
+      <c r="B34" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="78"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="88">
+        <f>SUM(G33:G33)</f>
+        <v>4</v>
+      </c>
+      <c r="H34" s="88" t="s">
+        <v>105</v>
+      </c>
+      <c r="I34" s="88">
+        <f>4289.73/1.15</f>
+        <v>3730.2</v>
+      </c>
+      <c r="J34" s="90">
+        <f>G33*I34</f>
+        <v>14920.8</v>
+      </c>
+      <c r="K34" s="30"/>
+    </row>
+    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="25"/>
+      <c r="B35" s="87" t="s">
+        <v>135</v>
+      </c>
+      <c r="C35" s="78"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="88"/>
+      <c r="H35" s="88"/>
+      <c r="I35" s="89"/>
+      <c r="J35" s="90">
+        <f>0.13*G34*(7326/5)</f>
+        <v>761.904</v>
+      </c>
+      <c r="K35" s="30"/>
+    </row>
+    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="25"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="30"/>
+    </row>
+    <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="25">
+        <v>7</v>
+      </c>
+      <c r="B37" s="97" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="78"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="79"/>
+      <c r="I37" s="79"/>
+      <c r="J37" s="80"/>
+      <c r="K37" s="30"/>
+    </row>
+    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12"/>
+      <c r="B38" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="82">
+        <v>2</v>
+      </c>
+      <c r="D38" s="92">
+        <f>(((15.667+16.25)/2)/3.281)+0.2</f>
+        <v>5.063913441024078</v>
+      </c>
+      <c r="E38" s="83">
+        <f>((10.75)/3.281)</f>
+        <v>3.2764401097226452</v>
+      </c>
+      <c r="F38" s="83"/>
+      <c r="G38" s="79">
+        <f>PRODUCT(C38:F38)</f>
+        <v>33.183218220669815</v>
+      </c>
+      <c r="H38" s="84"/>
+      <c r="I38" s="85"/>
+      <c r="J38" s="86"/>
+      <c r="K38" s="16"/>
+    </row>
+    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="25"/>
+      <c r="B39" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="78"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="79"/>
+      <c r="G39" s="88">
+        <f>SUM(G38:G38)</f>
+        <v>33.183218220669815</v>
+      </c>
+      <c r="H39" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="I39" s="89">
+        <f>685.98/1.15</f>
+        <v>596.50434782608704</v>
+      </c>
+      <c r="J39" s="90">
+        <f>G39*I39</f>
+        <v>19793.933943491378</v>
+      </c>
+      <c r="K39" s="30"/>
+    </row>
+    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="25"/>
+      <c r="B40" s="87" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" s="78"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="88"/>
+      <c r="H40" s="88"/>
+      <c r="I40" s="89"/>
+      <c r="J40" s="90">
+        <f>0.13*G39*(1397.55/10)</f>
+        <v>602.87768611586228</v>
+      </c>
+      <c r="K40" s="30"/>
+    </row>
+    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="25"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="30"/>
+    </row>
+    <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="25">
+        <v>8</v>
+      </c>
+      <c r="B42" s="97" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" s="78"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="79"/>
+      <c r="G42" s="79"/>
+      <c r="H42" s="79"/>
+      <c r="I42" s="79"/>
+      <c r="J42" s="80"/>
+      <c r="K42" s="30"/>
+    </row>
+    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
+      <c r="B43" s="81" t="str">
+        <f>B11</f>
+        <v>-Strip wood</v>
+      </c>
+      <c r="C43" s="82">
+        <v>4</v>
+      </c>
+      <c r="D43" s="92">
+        <f>D11</f>
+        <v>5.1813471502590671</v>
+      </c>
+      <c r="E43" s="83">
+        <v>0.05</v>
+      </c>
+      <c r="F43" s="83">
+        <v>0.05</v>
+      </c>
+      <c r="G43" s="79">
+        <f>PRODUCT(C43:F43)</f>
+        <v>5.181347150259067E-2</v>
+      </c>
+      <c r="H43" s="84"/>
+      <c r="I43" s="85"/>
+      <c r="J43" s="86"/>
+      <c r="K43" s="16"/>
+    </row>
+    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="12"/>
+      <c r="B44" s="81"/>
+      <c r="C44" s="82">
+        <v>2</v>
+      </c>
+      <c r="D44" s="92">
+        <f>D12</f>
+        <v>4.9781570659351821</v>
+      </c>
+      <c r="E44" s="83">
+        <v>0.05</v>
+      </c>
+      <c r="F44" s="83">
+        <v>0.05</v>
+      </c>
+      <c r="G44" s="79">
+        <f t="shared" ref="G44:G46" si="1">PRODUCT(C44:F44)</f>
+        <v>2.4890785329675914E-2</v>
+      </c>
+      <c r="H44" s="84"/>
+      <c r="I44" s="85"/>
+      <c r="J44" s="86"/>
+      <c r="K44" s="16"/>
+    </row>
+    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="12"/>
+      <c r="B45" s="81"/>
+      <c r="C45" s="82">
+        <v>4</v>
+      </c>
+      <c r="D45" s="92">
+        <f>D13</f>
+        <v>4.9781570659351821</v>
+      </c>
+      <c r="E45" s="83">
+        <f>2/12/3.281</f>
+        <v>5.0797521080971242E-2</v>
+      </c>
+      <c r="F45" s="83">
+        <f>2/12/3.281</f>
+        <v>5.0797521080971242E-2</v>
+      </c>
+      <c r="G45" s="79">
+        <f t="shared" si="1"/>
+        <v>5.1382309966723223E-2</v>
+      </c>
+      <c r="H45" s="84"/>
+      <c r="I45" s="85"/>
+      <c r="J45" s="86"/>
+      <c r="K45" s="16"/>
+    </row>
+    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="12"/>
+      <c r="B46" s="81"/>
+      <c r="C46" s="82">
+        <v>2</v>
+      </c>
+      <c r="D46" s="92">
+        <f>D14</f>
+        <v>4.8257645026922686</v>
+      </c>
+      <c r="E46" s="83">
+        <f>2/12/3.281</f>
+        <v>5.0797521080971242E-2</v>
+      </c>
+      <c r="F46" s="83">
+        <f>2/12/3.281</f>
+        <v>5.0797521080971242E-2</v>
+      </c>
+      <c r="G46" s="79">
+        <f t="shared" si="1"/>
+        <v>2.4904691055299522E-2</v>
+      </c>
+      <c r="H46" s="84"/>
+      <c r="I46" s="85"/>
+      <c r="J46" s="86"/>
+      <c r="K46" s="16"/>
+    </row>
+    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="12"/>
+      <c r="B47" s="81" t="str">
+        <f>B18</f>
+        <v>-ridge</v>
+      </c>
+      <c r="C47" s="82">
+        <v>2</v>
+      </c>
+      <c r="D47" s="92">
+        <f>D18</f>
+        <v>1.2</v>
+      </c>
+      <c r="E47" s="83">
+        <f>3/12/3.281</f>
+        <v>7.6196281621456863E-2</v>
+      </c>
+      <c r="F47" s="83">
+        <f>4/12/3.281</f>
+        <v>0.10159504216194248</v>
+      </c>
+      <c r="G47" s="79">
+        <f>PRODUCT(C47:F47)</f>
+        <v>1.8578794665396366E-2</v>
+      </c>
+      <c r="H47" s="84"/>
+      <c r="I47" s="85"/>
+      <c r="J47" s="86"/>
+      <c r="K47" s="16"/>
+    </row>
+    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="12"/>
+      <c r="B48" s="81" t="s">
+        <v>157</v>
+      </c>
+      <c r="C48" s="82">
+        <v>2</v>
+      </c>
+      <c r="D48" s="92">
+        <f>45/12/3.281</f>
+        <v>1.1429442243218531</v>
+      </c>
+      <c r="E48" s="83">
+        <f>3/12/3.281</f>
+        <v>7.6196281621456863E-2</v>
+      </c>
+      <c r="F48" s="83">
+        <f>5/12/3.281</f>
+        <v>0.12699380270242813</v>
+      </c>
+      <c r="G48" s="79">
+        <f>PRODUCT(C48:F48)</f>
+        <v>2.2119297976746291E-2</v>
+      </c>
+      <c r="H48" s="84"/>
+      <c r="I48" s="85"/>
+      <c r="J48" s="86"/>
+      <c r="K48" s="16"/>
+    </row>
+    <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="12"/>
+      <c r="B49" s="81"/>
+      <c r="C49" s="82">
+        <v>2</v>
+      </c>
+      <c r="D49" s="92">
+        <f>39/12/3.281</f>
+        <v>0.99055166107893933</v>
+      </c>
+      <c r="E49" s="83">
+        <f>3/12/3.281</f>
+        <v>7.6196281621456863E-2</v>
+      </c>
+      <c r="F49" s="83">
+        <f>5/12/3.281</f>
+        <v>0.12699380270242813</v>
+      </c>
+      <c r="G49" s="79">
+        <f>PRODUCT(C49:F49)</f>
+        <v>1.9170058246513449E-2</v>
+      </c>
+      <c r="H49" s="84"/>
+      <c r="I49" s="85"/>
+      <c r="J49" s="86"/>
+      <c r="K49" s="16"/>
+    </row>
+    <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="25"/>
+      <c r="B50" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="78"/>
+      <c r="D50" s="79"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="79"/>
+      <c r="G50" s="88">
+        <f>SUM(G43:G49)</f>
+        <v>0.21285940874294543</v>
+      </c>
+      <c r="H50" s="88" t="s">
+        <v>29</v>
+      </c>
+      <c r="I50" s="89">
+        <f>286497.45/1.15</f>
+        <v>249128.21739130438</v>
+      </c>
+      <c r="J50" s="90">
+        <f>G50*I50</f>
+        <v>53029.285055097025</v>
+      </c>
+      <c r="K50" s="30"/>
+    </row>
+    <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="25"/>
+      <c r="B51" s="87" t="s">
+        <v>142</v>
+      </c>
+      <c r="C51" s="78"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="79"/>
+      <c r="G51" s="88"/>
+      <c r="H51" s="88"/>
+      <c r="I51" s="89"/>
+      <c r="J51" s="90">
+        <f>0.13*G50*225887.77</f>
+        <v>6250.7038313801177</v>
+      </c>
+      <c r="K51" s="30"/>
+    </row>
+    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="25"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="30"/>
+    </row>
+    <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="25"/>
+      <c r="B53" s="77" t="s">
+        <v>171</v>
+      </c>
+      <c r="C53" s="78"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="79"/>
+      <c r="F53" s="79"/>
+      <c r="G53" s="88"/>
+      <c r="H53" s="88"/>
+      <c r="I53" s="89"/>
+      <c r="J53" s="90"/>
+      <c r="K53" s="30"/>
+    </row>
+    <row r="54" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="25"/>
+      <c r="B54" s="87"/>
+      <c r="C54" s="78">
+        <v>2</v>
+      </c>
+      <c r="D54" s="79">
+        <f>17/12/3.281</f>
+        <v>0.43177892918825561</v>
+      </c>
+      <c r="E54" s="79"/>
+      <c r="F54" s="79">
+        <f>12/12/3.281</f>
+        <v>0.30478512648582745</v>
+      </c>
+      <c r="G54" s="79">
+        <f>PRODUCT(C54:F54)</f>
+        <v>0.26319959109311525</v>
+      </c>
+      <c r="H54" s="88"/>
+      <c r="I54" s="89"/>
+      <c r="J54" s="90"/>
+      <c r="K54" s="30"/>
+    </row>
+    <row r="55" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="25"/>
+      <c r="B55" s="87"/>
+      <c r="C55" s="78">
+        <v>2</v>
+      </c>
+      <c r="D55" s="79">
+        <f>40/12/3.281</f>
+        <v>1.0159504216194251</v>
+      </c>
+      <c r="E55" s="79"/>
+      <c r="F55" s="79">
+        <f>12/12/3.281</f>
+        <v>0.30478512648582745</v>
+      </c>
+      <c r="G55" s="79">
+        <f>PRODUCT(C55:F55)</f>
+        <v>0.6192931555132124</v>
+      </c>
+      <c r="H55" s="88"/>
+      <c r="I55" s="89"/>
+      <c r="J55" s="90"/>
+      <c r="K55" s="30"/>
+    </row>
+    <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="25"/>
+      <c r="B56" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" s="78"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="79"/>
+      <c r="F56" s="79"/>
+      <c r="G56" s="88">
+        <f>SUM(G54:G55)</f>
+        <v>0.8824927466063277</v>
+      </c>
+      <c r="H56" s="88" t="s">
+        <v>29</v>
+      </c>
+      <c r="I56" s="89">
+        <f>6679.1</f>
+        <v>6679.1</v>
+      </c>
+      <c r="J56" s="90">
+        <f>G56*I56</f>
+        <v>5894.2573038583241</v>
+      </c>
+      <c r="K56" s="30"/>
+    </row>
+    <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="25"/>
+      <c r="B57" s="87" t="s">
+        <v>142</v>
+      </c>
+      <c r="C57" s="78"/>
+      <c r="D57" s="79"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="79"/>
+      <c r="G57" s="88"/>
+      <c r="H57" s="88"/>
+      <c r="I57" s="89"/>
+      <c r="J57" s="90">
+        <f>0.13*G56*(571320.75/100)</f>
+        <v>655.44234321889326</v>
+      </c>
+      <c r="K57" s="30"/>
+    </row>
+    <row r="58" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="25"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="29"/>
+      <c r="K58" s="30"/>
+    </row>
+    <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="25">
+        <v>11</v>
+      </c>
+      <c r="B59" s="97" t="s">
+        <v>158</v>
+      </c>
+      <c r="C59" s="78"/>
+      <c r="D59" s="79"/>
+      <c r="E59" s="79"/>
+      <c r="F59" s="79"/>
+      <c r="G59" s="79"/>
+      <c r="H59" s="79"/>
+      <c r="I59" s="79"/>
+      <c r="J59" s="80"/>
+      <c r="K59" s="30"/>
+    </row>
+    <row r="60" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="25"/>
+      <c r="B60" s="98" t="str">
+        <f>B48</f>
+        <v>-Tundal</v>
+      </c>
+      <c r="C60" s="78">
+        <f>C48</f>
+        <v>2</v>
+      </c>
+      <c r="D60" s="79">
+        <f>D48</f>
+        <v>1.1429442243218531</v>
+      </c>
+      <c r="E60" s="79">
+        <f>(3*2+5)/12/3.281</f>
+        <v>0.27938636594534183</v>
+      </c>
+      <c r="F60" s="79"/>
+      <c r="G60" s="79">
+        <f>PRODUCT(C60:F60)</f>
+        <v>0.63864606662300016</v>
+      </c>
+      <c r="H60" s="79"/>
+      <c r="I60" s="79"/>
+      <c r="J60" s="80"/>
+      <c r="K60" s="30"/>
+    </row>
+    <row r="61" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="25"/>
+      <c r="B61" s="87"/>
+      <c r="C61" s="78">
+        <f>C49</f>
+        <v>2</v>
+      </c>
+      <c r="D61" s="79">
+        <f>D49</f>
+        <v>0.99055166107893933</v>
+      </c>
+      <c r="E61" s="79">
+        <f>(3*2+5)/12/3.281</f>
+        <v>0.27938636594534183</v>
+      </c>
+      <c r="F61" s="79"/>
+      <c r="G61" s="79">
+        <f>PRODUCT(C61:F61)</f>
+        <v>0.55349325773993352</v>
+      </c>
+      <c r="H61" s="79"/>
+      <c r="I61" s="79"/>
+      <c r="J61" s="80"/>
+      <c r="K61" s="30"/>
+    </row>
+    <row r="62" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="25"/>
+      <c r="B62" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="78"/>
+      <c r="D62" s="79"/>
+      <c r="E62" s="79"/>
+      <c r="F62" s="79"/>
+      <c r="G62" s="88">
+        <f>SUM(G60:G61)</f>
+        <v>1.1921393243629337</v>
+      </c>
+      <c r="H62" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="I62" s="89">
+        <f>15743.5/1.15</f>
+        <v>13690.000000000002</v>
+      </c>
+      <c r="J62" s="90">
+        <f>G62*I62</f>
+        <v>16320.387350528565</v>
+      </c>
+      <c r="K62" s="30"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="25"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="45"/>
+      <c r="H63" s="45"/>
+      <c r="I63" s="45"/>
+      <c r="J63" s="39"/>
+      <c r="K63" s="30"/>
+    </row>
+    <row r="64" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="25">
+        <v>11</v>
+      </c>
+      <c r="B64" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" s="78"/>
+      <c r="D64" s="79"/>
+      <c r="E64" s="79"/>
+      <c r="F64" s="79"/>
+      <c r="G64" s="79"/>
+      <c r="H64" s="79"/>
+      <c r="I64" s="79"/>
+      <c r="J64" s="80"/>
+      <c r="K64" s="30"/>
+    </row>
+    <row r="65" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="25"/>
+      <c r="B65" s="87" t="s">
+        <v>133</v>
+      </c>
+      <c r="C65" s="78">
+        <v>1</v>
+      </c>
+      <c r="D65" s="79">
+        <v>0.9</v>
+      </c>
+      <c r="E65" s="79"/>
+      <c r="F65" s="79">
+        <v>1.5</v>
+      </c>
+      <c r="G65" s="79">
+        <f>PRODUCT(C65:F65)</f>
+        <v>1.35</v>
+      </c>
+      <c r="H65" s="79"/>
+      <c r="I65" s="79"/>
+      <c r="J65" s="80"/>
+      <c r="K65" s="30"/>
+    </row>
+    <row r="66" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="25"/>
+      <c r="B66" s="87" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66" s="78">
+        <v>-2</v>
+      </c>
+      <c r="D66" s="79">
+        <v>0.88</v>
+      </c>
+      <c r="E66" s="79"/>
+      <c r="F66" s="79">
+        <v>0.3</v>
+      </c>
+      <c r="G66" s="79">
+        <f>PRODUCT(C66:F66)</f>
+        <v>-0.52800000000000002</v>
+      </c>
+      <c r="H66" s="79"/>
+      <c r="I66" s="79"/>
+      <c r="J66" s="80"/>
+      <c r="K66" s="30"/>
+    </row>
+    <row r="67" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="25"/>
+      <c r="B67" s="87" t="s">
+        <v>168</v>
+      </c>
+      <c r="C67" s="78">
+        <v>1</v>
+      </c>
+      <c r="D67" s="79">
+        <v>0.73</v>
+      </c>
+      <c r="E67" s="79"/>
+      <c r="F67" s="79">
+        <v>0.23</v>
+      </c>
+      <c r="G67" s="79">
+        <f>PRODUCT(C67:F67)</f>
+        <v>0.16789999999999999</v>
+      </c>
+      <c r="H67" s="79"/>
+      <c r="I67" s="79"/>
+      <c r="J67" s="80"/>
+      <c r="K67" s="30"/>
+    </row>
+    <row r="68" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="25"/>
+      <c r="B68" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68" s="78"/>
+      <c r="D68" s="79"/>
+      <c r="E68" s="79"/>
+      <c r="F68" s="79"/>
+      <c r="G68" s="88">
+        <f>SUM(G65:G67)</f>
+        <v>0.9899</v>
+      </c>
+      <c r="H68" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="I68" s="89">
+        <f>120237.47/1.772</f>
+        <v>67854.102708803606</v>
+      </c>
+      <c r="J68" s="90">
+        <f>G68*I68</f>
+        <v>67168.776271444687</v>
+      </c>
+      <c r="K68" s="30"/>
+      <c r="M68">
+        <v>73689.555541760725</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="25"/>
+      <c r="B69" s="87" t="s">
+        <v>142</v>
+      </c>
+      <c r="C69" s="78"/>
+      <c r="D69" s="79"/>
+      <c r="E69" s="79"/>
+      <c r="F69" s="79"/>
+      <c r="G69" s="88"/>
+      <c r="H69" s="88"/>
+      <c r="I69" s="89"/>
+      <c r="J69" s="90">
+        <f>0.13*G68*(41917.47/1.772)</f>
+        <v>3044.1498091930021</v>
+      </c>
+      <c r="K69" s="30"/>
+      <c r="M69">
+        <v>3339.6774348758472</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" s="25"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="45"/>
+      <c r="H70" s="45"/>
+      <c r="I70" s="45"/>
+      <c r="J70" s="39"/>
+      <c r="K70" s="30"/>
+    </row>
+    <row r="71" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="25">
+        <v>13</v>
+      </c>
+      <c r="B71" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="C71" s="78"/>
+      <c r="D71" s="79"/>
+      <c r="E71" s="79"/>
+      <c r="F71" s="79"/>
+      <c r="G71" s="79"/>
+      <c r="H71" s="79"/>
+      <c r="I71" s="79"/>
+      <c r="J71" s="80"/>
+      <c r="K71" s="30"/>
+    </row>
+    <row r="72" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="25"/>
+      <c r="B72" s="87" t="s">
+        <v>96</v>
+      </c>
+      <c r="C72" s="78">
+        <v>2</v>
+      </c>
+      <c r="D72" s="79">
+        <f>D66</f>
+        <v>0.88</v>
+      </c>
+      <c r="E72" s="79"/>
+      <c r="F72" s="79">
+        <f>F66</f>
+        <v>0.3</v>
+      </c>
+      <c r="G72" s="79">
+        <f>PRODUCT(C72:F72)</f>
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="H72" s="79"/>
+      <c r="I72" s="79"/>
+      <c r="J72" s="80"/>
+      <c r="K72" s="30"/>
+      <c r="O72">
+        <f>0.93-0.05*2</f>
+        <v>0.83000000000000007</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="25"/>
+      <c r="B73" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" s="78"/>
+      <c r="D73" s="79"/>
+      <c r="E73" s="79"/>
+      <c r="F73" s="79"/>
+      <c r="G73" s="88">
+        <f>SUM(G72:G72)</f>
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="H73" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="I73" s="89">
+        <f>69579.92/1.15</f>
+        <v>60504.278260869571</v>
+      </c>
+      <c r="J73" s="90">
+        <f>G73*I73</f>
+        <v>31946.258921739136</v>
+      </c>
+      <c r="K73" s="30"/>
+      <c r="M73">
+        <v>15973.129460869568</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="25"/>
+      <c r="B74" s="87" t="s">
+        <v>142</v>
+      </c>
+      <c r="C74" s="78"/>
+      <c r="D74" s="79"/>
+      <c r="E74" s="79"/>
+      <c r="F74" s="79"/>
+      <c r="G74" s="88"/>
+      <c r="H74" s="88"/>
+      <c r="I74" s="89"/>
+      <c r="J74" s="90">
+        <f>0.13*G73*(9888.94/0.92)</f>
+        <v>737.80091478260874</v>
+      </c>
+      <c r="K74" s="30"/>
+      <c r="M74">
+        <v>368.90045739130437</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="25"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="45"/>
+      <c r="I75" s="45"/>
+      <c r="J75" s="39"/>
+      <c r="K75" s="30"/>
+    </row>
+    <row r="76" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="25">
+        <v>9</v>
+      </c>
+      <c r="B76" s="97" t="s">
+        <v>132</v>
+      </c>
+      <c r="C76" s="78"/>
+      <c r="D76" s="79"/>
+      <c r="E76" s="79"/>
+      <c r="F76" s="79"/>
+      <c r="G76" s="79"/>
+      <c r="H76" s="79"/>
+      <c r="I76" s="79"/>
+      <c r="J76" s="80"/>
+      <c r="K76" s="30"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" s="25"/>
+      <c r="B77" s="87" t="s">
+        <v>92</v>
+      </c>
+      <c r="C77" s="78">
+        <v>2</v>
+      </c>
+      <c r="D77" s="79">
+        <f>7/3.281</f>
+        <v>2.1334958854007922</v>
+      </c>
+      <c r="E77" s="79">
+        <f>0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="F77" s="79">
+        <v>0.125</v>
+      </c>
+      <c r="G77" s="79">
+        <f>PRODUCT(C77:F77)</f>
+        <v>5.333739713501981E-2</v>
+      </c>
+      <c r="H77" s="79"/>
+      <c r="I77" s="79"/>
+      <c r="J77" s="80"/>
+      <c r="K77" s="30"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" s="25"/>
+      <c r="B78" s="87"/>
+      <c r="C78" s="78">
+        <v>1</v>
+      </c>
+      <c r="D78" s="79">
+        <f>4/3.281</f>
+        <v>1.2191405059433098</v>
+      </c>
+      <c r="E78" s="79">
+        <v>0.1</v>
+      </c>
+      <c r="F78" s="79">
+        <v>0.125</v>
+      </c>
+      <c r="G78" s="79">
+        <f>PRODUCT(C78:F78)</f>
+        <v>1.5239256324291373E-2</v>
+      </c>
+      <c r="H78" s="79"/>
+      <c r="I78" s="79"/>
+      <c r="J78" s="80"/>
+      <c r="K78" s="30"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" s="25"/>
+      <c r="B79" s="87"/>
+      <c r="C79" s="78">
+        <v>1</v>
+      </c>
+      <c r="D79" s="79">
+        <f>4/3.281</f>
+        <v>1.2191405059433098</v>
+      </c>
+      <c r="E79" s="79">
+        <f>3/12/3.281</f>
+        <v>7.6196281621456863E-2</v>
+      </c>
+      <c r="F79" s="79">
+        <f>7/12/3.281</f>
+        <v>0.17779132378339937</v>
+      </c>
+      <c r="G79" s="79">
+        <f>PRODUCT(C79:F79)</f>
+        <v>1.6515742489303892E-2</v>
+      </c>
+      <c r="H79" s="79"/>
+      <c r="I79" s="79"/>
+      <c r="J79" s="80"/>
+      <c r="K79" s="30"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80" s="25"/>
+      <c r="B80" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="C80" s="78">
+        <v>2</v>
+      </c>
+      <c r="D80" s="79">
+        <f>5/3.281</f>
+        <v>1.5239256324291375</v>
+      </c>
+      <c r="E80" s="79">
+        <f>0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="F80" s="79">
+        <f>3/12/3.281</f>
+        <v>7.6196281621456863E-2</v>
+      </c>
+      <c r="G80" s="79">
+        <f>PRODUCT(C80:F80)</f>
+        <v>2.3223493331745462E-2</v>
+      </c>
+      <c r="H80" s="79"/>
+      <c r="I80" s="79"/>
+      <c r="J80" s="80"/>
+      <c r="K80" s="30"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" s="25"/>
+      <c r="B81" s="87"/>
+      <c r="C81" s="78">
+        <v>2</v>
+      </c>
+      <c r="D81" s="79">
+        <f>4.5/3.281</f>
+        <v>1.3715330691862238</v>
+      </c>
+      <c r="E81" s="79">
+        <v>0.15</v>
+      </c>
+      <c r="F81" s="79">
+        <f>3/12/3.281</f>
+        <v>7.6196281621456863E-2</v>
+      </c>
+      <c r="G81" s="79">
+        <f>PRODUCT(C81:F81)</f>
+        <v>3.1351715997856376E-2</v>
+      </c>
+      <c r="H81" s="79"/>
+      <c r="I81" s="79"/>
+      <c r="J81" s="80"/>
+      <c r="K81" s="30"/>
+    </row>
+    <row r="82" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="25"/>
+      <c r="B82" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="C82" s="78"/>
+      <c r="D82" s="79"/>
+      <c r="E82" s="79"/>
+      <c r="F82" s="79"/>
+      <c r="G82" s="88">
+        <f>SUM(G79:G81)</f>
+        <v>7.1090951818905734E-2</v>
+      </c>
+      <c r="H82" s="88" t="s">
+        <v>29</v>
+      </c>
+      <c r="I82" s="89">
+        <f>353723.98/1.15</f>
+        <v>307586.06956521742</v>
+      </c>
+      <c r="J82" s="90">
+        <f>G82*I82</f>
+        <v>21866.58645162746</v>
+      </c>
+      <c r="K82" s="30"/>
+      <c r="M82">
+        <f>1.03*3.281</f>
+        <v>3.3794300000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="25"/>
+      <c r="B83" s="87" t="s">
+        <v>142</v>
+      </c>
+      <c r="C83" s="78"/>
+      <c r="D83" s="79"/>
+      <c r="E83" s="79"/>
+      <c r="F83" s="79"/>
+      <c r="G83" s="88"/>
+      <c r="H83" s="88"/>
+      <c r="I83" s="89"/>
+      <c r="J83" s="90">
+        <f>0.13*G82*262808.07</f>
+        <v>2428.8258594586487</v>
+      </c>
+      <c r="K83" s="30"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" s="25"/>
+      <c r="B84" s="87"/>
+      <c r="C84" s="78"/>
+      <c r="D84" s="79"/>
+      <c r="E84" s="79"/>
+      <c r="F84" s="79"/>
+      <c r="G84" s="79"/>
+      <c r="H84" s="79"/>
+      <c r="I84" s="79"/>
+      <c r="J84" s="80"/>
+      <c r="K84" s="30"/>
+    </row>
+    <row r="85" spans="1:13" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="25">
+        <v>10</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C85" s="78"/>
+      <c r="D85" s="79"/>
+      <c r="E85" s="79"/>
+      <c r="F85" s="79"/>
+      <c r="G85" s="79"/>
+      <c r="H85" s="79"/>
+      <c r="I85" s="79"/>
+      <c r="J85" s="80"/>
+      <c r="K85" s="30"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" s="25"/>
+      <c r="B86" s="87" t="s">
+        <v>163</v>
+      </c>
+      <c r="C86" s="78">
+        <v>2</v>
+      </c>
+      <c r="D86" s="79">
+        <f>6/3.281</f>
+        <v>1.8287107589149649</v>
+      </c>
+      <c r="E86" s="79">
+        <v>0.1</v>
+      </c>
+      <c r="F86" s="79">
+        <v>0.05</v>
+      </c>
+      <c r="G86" s="79">
+        <f t="shared" ref="G86:G95" si="2">PRODUCT(C86:F86)</f>
+        <v>1.8287107589149653E-2</v>
+      </c>
+      <c r="H86" s="79"/>
+      <c r="I86" s="79"/>
+      <c r="J86" s="80"/>
+      <c r="K86" s="30"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" s="25"/>
+      <c r="B87" s="87"/>
+      <c r="C87" s="78">
+        <v>2</v>
+      </c>
+      <c r="D87" s="79">
+        <f>4.5/3.281</f>
+        <v>1.3715330691862238</v>
+      </c>
+      <c r="E87" s="79">
+        <v>0.1</v>
+      </c>
+      <c r="F87" s="79">
+        <v>0.05</v>
+      </c>
+      <c r="G87" s="79">
+        <f t="shared" si="2"/>
+        <v>1.3715330691862239E-2</v>
+      </c>
+      <c r="H87" s="79"/>
+      <c r="I87" s="79"/>
+      <c r="J87" s="80"/>
+      <c r="K87" s="30"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" s="25"/>
+      <c r="B88" s="87" t="s">
+        <v>164</v>
+      </c>
+      <c r="C88" s="78">
+        <v>1</v>
+      </c>
+      <c r="D88" s="79">
+        <f>1.5</f>
+        <v>1.5</v>
+      </c>
+      <c r="E88" s="79">
+        <v>0.1</v>
+      </c>
+      <c r="F88" s="79">
+        <v>0.05</v>
+      </c>
+      <c r="G88" s="79">
+        <f t="shared" si="2"/>
+        <v>7.5000000000000015E-3</v>
+      </c>
+      <c r="H88" s="79"/>
+      <c r="I88" s="79"/>
+      <c r="J88" s="80"/>
+      <c r="K88" s="30"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" s="25"/>
+      <c r="B89" s="87" t="s">
+        <v>165</v>
+      </c>
+      <c r="C89" s="78">
+        <v>1</v>
+      </c>
+      <c r="D89" s="79">
+        <v>0.9</v>
+      </c>
+      <c r="E89" s="79">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F89" s="79">
+        <v>0.125</v>
+      </c>
+      <c r="G89" s="79">
+        <f t="shared" si="2"/>
+        <v>8.4375000000000006E-3</v>
+      </c>
+      <c r="H89" s="79"/>
+      <c r="I89" s="79"/>
+      <c r="J89" s="80"/>
+      <c r="K89" s="30"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" s="25"/>
+      <c r="B90" s="87" t="s">
+        <v>166</v>
+      </c>
+      <c r="C90" s="78">
+        <v>1</v>
+      </c>
+      <c r="D90" s="79">
+        <f>2.33/3.281</f>
+        <v>0.71014934471197799</v>
+      </c>
+      <c r="E90" s="79">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F90" s="79">
+        <v>0.05</v>
+      </c>
+      <c r="G90" s="79">
+        <f t="shared" si="2"/>
+        <v>8.876866808899726E-4</v>
+      </c>
+      <c r="H90" s="79"/>
+      <c r="I90" s="79"/>
+      <c r="J90" s="80"/>
+      <c r="K90" s="30"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" s="25"/>
+      <c r="B91" s="87" t="s">
+        <v>167</v>
+      </c>
+      <c r="C91" s="78">
+        <v>2</v>
+      </c>
+      <c r="D91" s="79">
+        <f>7/12/3.281</f>
+        <v>0.17779132378339937</v>
+      </c>
+      <c r="E91" s="79">
+        <f>1.5/12/3.281</f>
+        <v>3.8098140810728431E-2</v>
+      </c>
+      <c r="F91" s="79">
+        <f>1.5/12/3.281</f>
+        <v>3.8098140810728431E-2</v>
+      </c>
+      <c r="G91" s="79">
+        <f t="shared" si="2"/>
+        <v>5.1611695279074664E-4</v>
+      </c>
+      <c r="H91" s="79"/>
+      <c r="I91" s="79"/>
+      <c r="J91" s="80"/>
+      <c r="K91" s="30"/>
+      <c r="M91" s="119">
+        <f>G82+G99</f>
+        <v>0.15755429203553573</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" s="25"/>
+      <c r="B92" s="87" t="s">
+        <v>168</v>
+      </c>
+      <c r="C92" s="78">
+        <v>1</v>
+      </c>
+      <c r="D92" s="79">
+        <v>0.73</v>
+      </c>
+      <c r="E92" s="79">
+        <v>0.05</v>
+      </c>
+      <c r="F92" s="79">
+        <v>0.23</v>
+      </c>
+      <c r="G92" s="79">
+        <f t="shared" si="2"/>
+        <v>8.3949999999999997E-3</v>
+      </c>
+      <c r="H92" s="79"/>
+      <c r="I92" s="79"/>
+      <c r="J92" s="80"/>
+      <c r="K92" s="30"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" s="25"/>
+      <c r="B93" s="87" t="s">
+        <v>169</v>
+      </c>
+      <c r="C93" s="78">
+        <v>1</v>
+      </c>
+      <c r="D93" s="79">
+        <v>0.32</v>
+      </c>
+      <c r="E93" s="79">
+        <v>0.72</v>
+      </c>
+      <c r="F93" s="79">
+        <v>0.05</v>
+      </c>
+      <c r="G93" s="79">
+        <f t="shared" si="2"/>
+        <v>1.1520000000000001E-2</v>
+      </c>
+      <c r="H93" s="79"/>
+      <c r="I93" s="79"/>
+      <c r="J93" s="80"/>
+      <c r="K93" s="30"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" s="25"/>
+      <c r="B94" s="87" t="s">
+        <v>170</v>
+      </c>
+      <c r="C94" s="78">
+        <v>4</v>
+      </c>
+      <c r="D94" s="79">
+        <v>0.93</v>
+      </c>
+      <c r="E94" s="79">
+        <v>0.05</v>
+      </c>
+      <c r="F94" s="79">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G94" s="79">
+        <f t="shared" si="2"/>
+        <v>1.3950000000000002E-2</v>
+      </c>
+      <c r="H94" s="79"/>
+      <c r="I94" s="79"/>
+      <c r="J94" s="80"/>
+      <c r="K94" s="30"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" s="25"/>
+      <c r="B95" s="87"/>
+      <c r="C95" s="78">
+        <v>4</v>
+      </c>
+      <c r="D95" s="79">
+        <v>0.36</v>
+      </c>
+      <c r="E95" s="79">
+        <v>0.05</v>
+      </c>
+      <c r="F95" s="79">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G95" s="79">
+        <f t="shared" si="2"/>
+        <v>5.3999999999999994E-3</v>
+      </c>
+      <c r="H95" s="79"/>
+      <c r="I95" s="79"/>
+      <c r="J95" s="80"/>
+      <c r="K95" s="30"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" s="25"/>
+      <c r="B96" s="87" t="s">
+        <v>174</v>
+      </c>
+      <c r="C96" s="78">
+        <v>2</v>
+      </c>
+      <c r="D96" s="79">
+        <f>6.75/3.281</f>
+        <v>2.0572996037793354</v>
+      </c>
+      <c r="E96" s="79">
+        <f>4/12/3.281</f>
+        <v>0.10159504216194248</v>
+      </c>
+      <c r="F96" s="79">
+        <f>2/12/3.281</f>
+        <v>5.0797521080971242E-2</v>
+      </c>
+      <c r="G96" s="79">
+        <f>PRODUCT(C96:F96)</f>
+        <v>2.1234526057676433E-2</v>
+      </c>
+      <c r="H96" s="79"/>
+      <c r="I96" s="79"/>
+      <c r="J96" s="80"/>
+      <c r="K96" s="30"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97" s="25"/>
+      <c r="B97" s="87"/>
+      <c r="C97" s="78">
+        <v>1</v>
+      </c>
+      <c r="D97" s="79">
+        <f>4/3.281</f>
+        <v>1.2191405059433098</v>
+      </c>
+      <c r="E97" s="79">
+        <f>4/12/3.281</f>
+        <v>0.10159504216194248</v>
+      </c>
+      <c r="F97" s="79">
+        <f>2/12/3.281</f>
+        <v>5.0797521080971242E-2</v>
+      </c>
+      <c r="G97" s="79">
+        <f>PRODUCT(C97:F97)</f>
+        <v>6.2917114244967201E-3</v>
+      </c>
+      <c r="H97" s="79"/>
+      <c r="I97" s="79"/>
+      <c r="J97" s="80"/>
+      <c r="K97" s="30"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" s="25"/>
+      <c r="B98" s="87"/>
+      <c r="C98" s="78">
+        <v>1</v>
+      </c>
+      <c r="D98" s="79">
+        <f>5/3.281</f>
+        <v>1.5239256324291375</v>
+      </c>
+      <c r="E98" s="79">
+        <f>5/12/3.281</f>
+        <v>0.12699380270242813</v>
+      </c>
+      <c r="F98" s="79">
+        <f>2/12/3.281</f>
+        <v>5.0797521080971242E-2</v>
+      </c>
+      <c r="G98" s="79">
+        <f>PRODUCT(C98:F98)</f>
+        <v>9.8307991007761299E-3</v>
+      </c>
+      <c r="H98" s="79"/>
+      <c r="I98" s="79"/>
+      <c r="J98" s="80"/>
+      <c r="K98" s="30"/>
+    </row>
+    <row r="99" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="25"/>
+      <c r="B99" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="C99" s="78"/>
+      <c r="D99" s="79"/>
+      <c r="E99" s="79"/>
+      <c r="F99" s="79"/>
+      <c r="G99" s="88">
+        <f>SUM(G89:G98)</f>
+        <v>8.6463340216630005E-2</v>
+      </c>
+      <c r="H99" s="88" t="s">
+        <v>29</v>
+      </c>
+      <c r="I99" s="89">
+        <v>284000.83</v>
+      </c>
+      <c r="J99" s="90">
+        <f>G99*I99</f>
+        <v>24555.660386095304</v>
+      </c>
+      <c r="K99" s="30"/>
+      <c r="M99">
+        <f>1.03*3.281</f>
+        <v>3.3794300000000002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="25"/>
+      <c r="B100" s="87" t="s">
+        <v>142</v>
+      </c>
+      <c r="C100" s="78"/>
+      <c r="D100" s="79"/>
+      <c r="E100" s="79"/>
+      <c r="F100" s="79"/>
+      <c r="G100" s="88"/>
+      <c r="H100" s="88"/>
+      <c r="I100" s="89"/>
+      <c r="J100" s="90">
+        <f>0.13*G99*239222.83</f>
+        <v>2688.9206419237553</v>
+      </c>
+      <c r="K100" s="30"/>
+    </row>
+    <row r="101" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="25"/>
+      <c r="B101" s="22"/>
+      <c r="C101" s="26"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="27"/>
+      <c r="H101" s="27"/>
+      <c r="I101" s="28"/>
+      <c r="J101" s="29"/>
+      <c r="K101" s="30"/>
+    </row>
+    <row r="102" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="96">
+        <v>10</v>
+      </c>
+      <c r="B102" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="C102" s="78"/>
+      <c r="D102" s="79"/>
+      <c r="E102" s="79"/>
+      <c r="F102" s="79"/>
+      <c r="G102" s="79"/>
+      <c r="H102" s="79"/>
+      <c r="I102" s="79"/>
+      <c r="J102" s="80"/>
+      <c r="K102" s="30"/>
+    </row>
+    <row r="103" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="96"/>
+      <c r="B103" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="C103" s="78">
+        <v>1</v>
+      </c>
+      <c r="D103" s="79">
+        <f>1.2+(2.5/12/3.281)*2</f>
+        <v>1.3269938027024282</v>
+      </c>
+      <c r="E103" s="79"/>
+      <c r="F103" s="79">
+        <f>2.07+(2.5/12/3.281)</f>
+        <v>2.1334969013512137</v>
+      </c>
+      <c r="G103" s="79">
+        <f>PRODUCT(C103:F103)</f>
+        <v>2.8311371661778946</v>
+      </c>
+      <c r="H103" s="79"/>
+      <c r="I103" s="79"/>
+      <c r="J103" s="80"/>
+      <c r="K103" s="30"/>
+    </row>
+    <row r="104" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="96"/>
+      <c r="B104" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="C104" s="78"/>
+      <c r="D104" s="79"/>
+      <c r="E104" s="79"/>
+      <c r="F104" s="79"/>
+      <c r="G104" s="88">
+        <f>SUM(G103:G103)</f>
+        <v>2.8311371661778946</v>
+      </c>
+      <c r="H104" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="I104" s="89">
+        <f>46573/1.15</f>
+        <v>40498.260869565223</v>
+      </c>
+      <c r="J104" s="90">
+        <f>G104*I104</f>
+        <v>114656.13151339401</v>
+      </c>
+      <c r="K104" s="30"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105" s="25"/>
+      <c r="B105" s="24"/>
+      <c r="C105" s="26"/>
+      <c r="D105" s="17"/>
+      <c r="E105" s="17"/>
+      <c r="F105" s="17"/>
+      <c r="G105" s="45"/>
+      <c r="H105" s="45"/>
+      <c r="I105" s="45"/>
+      <c r="J105" s="39"/>
+      <c r="K105" s="30"/>
+      <c r="N105" s="118">
+        <f>G99+G157</f>
+        <v>8.6463340216630005E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="25">
+        <v>14</v>
+      </c>
+      <c r="B106" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="C106" s="78"/>
+      <c r="D106" s="79"/>
+      <c r="E106" s="79"/>
+      <c r="F106" s="79"/>
+      <c r="G106" s="79"/>
+      <c r="H106" s="79"/>
+      <c r="I106" s="79"/>
+      <c r="J106" s="80"/>
+      <c r="K106" s="30"/>
+    </row>
+    <row r="107" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="25"/>
+      <c r="B107" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="C107" s="78">
+        <v>1</v>
+      </c>
+      <c r="D107" s="79">
+        <v>0.95</v>
+      </c>
+      <c r="E107" s="79"/>
+      <c r="F107" s="79">
+        <v>1.85</v>
+      </c>
+      <c r="G107" s="79">
+        <f>PRODUCT(C107:F107)</f>
+        <v>1.7575000000000001</v>
+      </c>
+      <c r="H107" s="79"/>
+      <c r="I107" s="79"/>
+      <c r="J107" s="80"/>
+      <c r="K107" s="30"/>
+    </row>
+    <row r="108" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="25"/>
+      <c r="B108" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="C108" s="78"/>
+      <c r="D108" s="79"/>
+      <c r="E108" s="79"/>
+      <c r="F108" s="79"/>
+      <c r="G108" s="88">
+        <f>SUM(G107:G107)</f>
+        <v>1.7575000000000001</v>
+      </c>
+      <c r="H108" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="I108" s="89">
+        <f>15859.11</f>
+        <v>15859.11</v>
+      </c>
+      <c r="J108" s="90">
+        <f>G108*I108</f>
+        <v>27872.385825000001</v>
+      </c>
+      <c r="K108" s="30"/>
+    </row>
+    <row r="109" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="25"/>
+      <c r="B109" s="87" t="s">
+        <v>142</v>
+      </c>
+      <c r="C109" s="78"/>
+      <c r="D109" s="79"/>
+      <c r="E109" s="79"/>
+      <c r="F109" s="79"/>
+      <c r="G109" s="88"/>
+      <c r="H109" s="88"/>
+      <c r="I109" s="89"/>
+      <c r="J109" s="90">
+        <f>0.13*G108*(20356.18/2.114)</f>
+        <v>2200.0370035477767</v>
+      </c>
+      <c r="K109" s="30"/>
+    </row>
+    <row r="110" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="25"/>
+      <c r="B110" s="11"/>
+      <c r="C110" s="26"/>
+      <c r="D110" s="17"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="17"/>
+      <c r="G110" s="45"/>
+      <c r="H110" s="45"/>
+      <c r="I110" s="45"/>
+      <c r="J110" s="39"/>
+      <c r="K110" s="30"/>
+    </row>
+    <row r="111" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A111" s="102">
+        <v>10</v>
+      </c>
+      <c r="B111" s="103" t="s">
+        <v>53</v>
+      </c>
+      <c r="C111" s="104"/>
+      <c r="D111" s="104"/>
+      <c r="E111" s="104"/>
+      <c r="F111" s="104"/>
+      <c r="G111" s="105"/>
+      <c r="H111" s="84"/>
+      <c r="I111" s="85"/>
+      <c r="J111" s="85"/>
+      <c r="K111" s="16"/>
+    </row>
+    <row r="112" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="102"/>
+      <c r="B112" s="81" t="s">
+        <v>54</v>
+      </c>
+      <c r="C112" s="82">
+        <v>1</v>
+      </c>
+      <c r="D112" s="92"/>
+      <c r="E112" s="83">
+        <f>11.667/3.281</f>
+        <v>3.555928070710149</v>
+      </c>
+      <c r="F112" s="83">
+        <f>18.33/3.281</f>
+        <v>5.5867113684852168</v>
+      </c>
+      <c r="G112" s="79">
+        <f t="shared" ref="G112:G121" si="3">PRODUCT(C112:F112)</f>
+        <v>19.865943778152094</v>
+      </c>
+      <c r="H112" s="84"/>
+      <c r="I112" s="85"/>
+      <c r="J112" s="86"/>
+      <c r="K112" s="16"/>
+      <c r="N112" s="21"/>
+    </row>
+    <row r="113" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="102"/>
+      <c r="B113" s="81" t="s">
+        <v>161</v>
+      </c>
+      <c r="C113" s="82">
+        <v>-1</v>
+      </c>
+      <c r="D113" s="92">
+        <f>3/3.281</f>
+        <v>0.91435537945748246</v>
+      </c>
+      <c r="E113" s="83"/>
+      <c r="F113" s="83">
+        <f>5/3.281</f>
+        <v>1.5239256324291375</v>
+      </c>
+      <c r="G113" s="79">
+        <f t="shared" si="3"/>
+        <v>-1.393409599904728</v>
+      </c>
+      <c r="H113" s="84"/>
+      <c r="I113" s="85"/>
+      <c r="J113" s="86"/>
+      <c r="K113" s="16"/>
+      <c r="N113" s="21"/>
+    </row>
+    <row r="114" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="102"/>
+      <c r="B114" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="C114" s="82">
+        <v>-1</v>
+      </c>
+      <c r="D114" s="92">
+        <f>1.18</f>
+        <v>1.18</v>
+      </c>
+      <c r="E114" s="83"/>
+      <c r="F114" s="83">
+        <f>2.07+0.127</f>
+        <v>2.1970000000000001</v>
+      </c>
+      <c r="G114" s="79">
+        <f t="shared" si="3"/>
+        <v>-2.59246</v>
+      </c>
+      <c r="H114" s="84"/>
+      <c r="I114" s="85"/>
+      <c r="J114" s="86"/>
+      <c r="K114" s="16"/>
+      <c r="N114" s="21"/>
+    </row>
+    <row r="115" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="102"/>
+      <c r="B115" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="C115" s="82">
+        <v>-1</v>
+      </c>
+      <c r="D115" s="92"/>
+      <c r="E115" s="83">
+        <f>E112</f>
+        <v>3.555928070710149</v>
+      </c>
+      <c r="F115" s="83">
+        <f>(2.5/12/3.281)*12</f>
+        <v>0.76196281621456885</v>
+      </c>
+      <c r="G115" s="79">
+        <f t="shared" si="3"/>
+        <v>-2.7094849670147436</v>
+      </c>
+      <c r="H115" s="84"/>
+      <c r="I115" s="85"/>
+      <c r="J115" s="86"/>
+      <c r="K115" s="16"/>
+      <c r="N115" s="21"/>
+    </row>
+    <row r="116" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="102"/>
+      <c r="B116" s="81" t="s">
+        <v>55</v>
+      </c>
+      <c r="C116" s="82">
+        <v>1</v>
+      </c>
+      <c r="D116" s="92"/>
+      <c r="E116" s="83">
+        <f>78/12/3.281</f>
+        <v>1.9811033221578787</v>
+      </c>
+      <c r="F116" s="83">
+        <f>18.083/3.281</f>
+        <v>5.5114294422432177</v>
+      </c>
+      <c r="G116" s="79">
+        <f t="shared" si="3"/>
+        <v>10.918711177866783</v>
+      </c>
+      <c r="H116" s="84"/>
+      <c r="I116" s="85"/>
+      <c r="J116" s="86"/>
+      <c r="K116" s="16"/>
+      <c r="N116" s="21"/>
+    </row>
+    <row r="117" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="102"/>
+      <c r="B117" s="81"/>
+      <c r="C117" s="82">
+        <v>0.5</v>
+      </c>
+      <c r="D117" s="92"/>
+      <c r="E117" s="92">
+        <f>92/12/3.281</f>
+        <v>2.3366859697246776</v>
+      </c>
+      <c r="F117" s="83">
+        <f>32/12/3.281</f>
+        <v>0.81276033729553987</v>
+      </c>
+      <c r="G117" s="79">
+        <f t="shared" si="3"/>
+        <v>0.94958283845359226</v>
+      </c>
+      <c r="H117" s="84"/>
+      <c r="I117" s="85"/>
+      <c r="J117" s="86"/>
+      <c r="K117" s="16"/>
+      <c r="N117" s="21"/>
+    </row>
+    <row r="118" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="102"/>
+      <c r="B118" s="81"/>
+      <c r="C118" s="82">
+        <v>0.5</v>
+      </c>
+      <c r="D118" s="92"/>
+      <c r="E118" s="83">
+        <f>7.5/12/3.281</f>
+        <v>0.19049070405364218</v>
+      </c>
+      <c r="F118" s="83">
+        <v>0.9</v>
+      </c>
+      <c r="G118" s="79">
+        <f t="shared" si="3"/>
+        <v>8.5720816824138985E-2</v>
+      </c>
+      <c r="H118" s="84"/>
+      <c r="I118" s="85"/>
+      <c r="J118" s="86"/>
+      <c r="K118" s="16"/>
+      <c r="N118" s="21"/>
+    </row>
+    <row r="119" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="102"/>
+      <c r="B119" s="81" t="s">
+        <v>162</v>
+      </c>
+      <c r="C119" s="82">
+        <v>-1</v>
+      </c>
+      <c r="D119" s="92">
+        <f>2/3.281</f>
+        <v>0.6095702529716549</v>
+      </c>
+      <c r="E119" s="83"/>
+      <c r="F119" s="83">
+        <f>14/12/3.281</f>
+        <v>0.35558264756679875</v>
+      </c>
+      <c r="G119" s="79">
+        <f t="shared" si="3"/>
+        <v>-0.21675260442962432</v>
+      </c>
+      <c r="H119" s="84"/>
+      <c r="I119" s="85"/>
+      <c r="J119" s="86"/>
+      <c r="K119" s="16"/>
+      <c r="N119" s="21"/>
+    </row>
+    <row r="120" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="102"/>
+      <c r="B120" s="81"/>
+      <c r="C120" s="82">
+        <v>-1</v>
+      </c>
+      <c r="D120" s="92">
+        <f>11/12/3.281</f>
+        <v>0.27938636594534183</v>
+      </c>
+      <c r="E120" s="83"/>
+      <c r="F120" s="83">
+        <f>5.42/3.281</f>
+        <v>1.6519353855531849</v>
+      </c>
+      <c r="G120" s="79">
+        <f t="shared" si="3"/>
+        <v>-0.46152822414622147</v>
+      </c>
+      <c r="H120" s="84"/>
+      <c r="I120" s="85"/>
+      <c r="J120" s="86"/>
+      <c r="K120" s="16"/>
+      <c r="N120" s="21"/>
+    </row>
+    <row r="121" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="102"/>
+      <c r="B121" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="C121" s="82">
+        <v>-1</v>
+      </c>
+      <c r="D121" s="92"/>
+      <c r="E121" s="83">
+        <f>E116</f>
+        <v>1.9811033221578787</v>
+      </c>
+      <c r="F121" s="84">
+        <f>(2.5/12/3.281)*9</f>
+        <v>0.57147211216092664</v>
+      </c>
+      <c r="G121" s="79">
+        <f t="shared" si="3"/>
+        <v>-1.1321452999225916</v>
+      </c>
+      <c r="H121" s="84"/>
+      <c r="I121" s="85"/>
+      <c r="J121" s="86"/>
+      <c r="K121" s="16"/>
+      <c r="N121" s="21"/>
+    </row>
+    <row r="122" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="102"/>
+      <c r="B122" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="C122" s="82"/>
+      <c r="D122" s="92"/>
+      <c r="E122" s="83"/>
+      <c r="F122" s="83"/>
+      <c r="G122" s="85">
+        <f>SUM(G112:G121)</f>
+        <v>23.314177915878702</v>
+      </c>
+      <c r="H122" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="I122" s="85">
+        <f>5810.57/1.15</f>
+        <v>5052.6695652173912</v>
+      </c>
+      <c r="J122" s="86">
+        <f>G122*I122</f>
+        <v>117798.83719362374</v>
+      </c>
+      <c r="K122" s="16"/>
+      <c r="N122" s="21"/>
+    </row>
+    <row r="123" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="102"/>
+      <c r="B123" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="C123" s="82"/>
+      <c r="D123" s="92"/>
+      <c r="E123" s="83"/>
+      <c r="F123" s="83"/>
+      <c r="G123" s="85"/>
+      <c r="H123" s="84"/>
+      <c r="I123" s="85"/>
+      <c r="J123" s="86">
+        <f>G122*0.13*(309557.25/100)</f>
+        <v>9382.1946421451848</v>
+      </c>
+      <c r="K123" s="16"/>
+      <c r="N123" s="21"/>
+    </row>
+    <row r="124" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="102"/>
+      <c r="B124" s="87"/>
+      <c r="C124" s="82"/>
+      <c r="D124" s="92"/>
+      <c r="E124" s="83"/>
+      <c r="F124" s="83"/>
+      <c r="G124" s="85"/>
+      <c r="H124" s="84"/>
+      <c r="I124" s="85"/>
+      <c r="J124" s="86"/>
+      <c r="K124" s="16"/>
+      <c r="N124" s="21"/>
+    </row>
+    <row r="125" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A125" s="102">
+        <v>11</v>
+      </c>
+      <c r="B125" s="103" t="s">
+        <v>67</v>
+      </c>
+      <c r="C125" s="82"/>
+      <c r="D125" s="92"/>
+      <c r="E125" s="83"/>
+      <c r="F125" s="83"/>
+      <c r="G125" s="85"/>
+      <c r="H125" s="84"/>
+      <c r="I125" s="85"/>
+      <c r="J125" s="86"/>
+      <c r="K125" s="16"/>
+      <c r="N125" s="21"/>
+    </row>
+    <row r="126" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="102"/>
+      <c r="B126" s="87" t="s">
+        <v>49</v>
+      </c>
+      <c r="C126" s="82">
+        <v>2</v>
+      </c>
+      <c r="D126" s="92">
+        <f>E112+E116</f>
+        <v>5.5370313928680277</v>
+      </c>
+      <c r="E126" s="83"/>
+      <c r="F126" s="83"/>
+      <c r="G126" s="79">
+        <f>PRODUCT(C126:F126)</f>
+        <v>11.074062785736055</v>
+      </c>
+      <c r="H126" s="84"/>
+      <c r="I126" s="85"/>
+      <c r="J126" s="86"/>
+      <c r="K126" s="16"/>
+      <c r="N126" s="21"/>
+    </row>
+    <row r="127" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="102"/>
+      <c r="B127" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="C127" s="82"/>
+      <c r="D127" s="92"/>
+      <c r="E127" s="83"/>
+      <c r="F127" s="83"/>
+      <c r="G127" s="85">
+        <f>SUM(G126:G126)</f>
+        <v>11.074062785736055</v>
+      </c>
+      <c r="H127" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="I127" s="85">
+        <f>396.86/1.15</f>
+        <v>345.09565217391309</v>
+      </c>
+      <c r="J127" s="86">
+        <f>G127*I127</f>
+        <v>3821.6109192584449</v>
+      </c>
+      <c r="K127" s="16"/>
+      <c r="N127" s="21"/>
+    </row>
+    <row r="128" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="102"/>
+      <c r="B128" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="C128" s="82"/>
+      <c r="D128" s="92"/>
+      <c r="E128" s="83"/>
+      <c r="F128" s="83"/>
+      <c r="G128" s="85"/>
+      <c r="H128" s="84"/>
+      <c r="I128" s="85"/>
+      <c r="J128" s="86">
+        <f>G127*0.13*(2182.61/10)</f>
+        <v>314.21468229807988</v>
+      </c>
+      <c r="K128" s="16"/>
+      <c r="N128" s="21"/>
+    </row>
+    <row r="129" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="102"/>
+      <c r="B129" s="87"/>
+      <c r="C129" s="82"/>
+      <c r="D129" s="92"/>
+      <c r="E129" s="83"/>
+      <c r="F129" s="83"/>
+      <c r="G129" s="85"/>
+      <c r="H129" s="84"/>
+      <c r="I129" s="85"/>
+      <c r="J129" s="86"/>
+      <c r="K129" s="16"/>
+      <c r="N129" s="21"/>
+    </row>
+    <row r="130" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A130" s="102">
+        <v>12</v>
+      </c>
+      <c r="B130" s="103" t="s">
+        <v>69</v>
+      </c>
+      <c r="C130" s="82"/>
+      <c r="D130" s="92"/>
+      <c r="E130" s="83"/>
+      <c r="F130" s="83"/>
+      <c r="G130" s="85"/>
+      <c r="H130" s="84"/>
+      <c r="I130" s="85"/>
+      <c r="J130" s="86"/>
+      <c r="K130" s="16"/>
+      <c r="N130" s="21"/>
+    </row>
+    <row r="131" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="102"/>
+      <c r="B131" s="87" t="s">
+        <v>49</v>
+      </c>
+      <c r="C131" s="82">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="D131" s="92">
+        <f>D126</f>
+        <v>5.5370313928680277</v>
+      </c>
+      <c r="E131" s="83"/>
+      <c r="F131" s="83"/>
+      <c r="G131" s="79">
+        <f>PRODUCT(C131:F131)</f>
+        <v>5.5370313928680277</v>
+      </c>
+      <c r="H131" s="84"/>
+      <c r="I131" s="85"/>
+      <c r="J131" s="86"/>
+      <c r="K131" s="16"/>
+      <c r="N131" s="21"/>
+    </row>
+    <row r="132" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="102"/>
+      <c r="B132" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="C132" s="82"/>
+      <c r="D132" s="92"/>
+      <c r="E132" s="83"/>
+      <c r="F132" s="83"/>
+      <c r="G132" s="85">
+        <f>SUM(G131:G131)</f>
+        <v>5.5370313928680277</v>
+      </c>
+      <c r="H132" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="I132" s="85">
+        <f>465.63/1.15</f>
+        <v>404.89565217391305</v>
+      </c>
+      <c r="J132" s="86">
+        <f>G132*I132</f>
+        <v>2241.9199369227304</v>
+      </c>
+      <c r="K132" s="16"/>
+      <c r="N132" s="21"/>
+    </row>
+    <row r="133" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="102"/>
+      <c r="B133" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="C133" s="82"/>
+      <c r="D133" s="92"/>
+      <c r="E133" s="83"/>
+      <c r="F133" s="83"/>
+      <c r="G133" s="85"/>
+      <c r="H133" s="84"/>
+      <c r="I133" s="85"/>
+      <c r="J133" s="86">
+        <f>G132*0.13*(2780.61/10)</f>
+        <v>200.15222319719598</v>
+      </c>
+      <c r="K133" s="16"/>
+      <c r="N133" s="21"/>
+    </row>
+    <row r="134" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="12"/>
+      <c r="B134" s="22"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="15"/>
+      <c r="E134" s="16"/>
+      <c r="F134" s="16"/>
+      <c r="G134" s="19"/>
+      <c r="H134" s="18"/>
+      <c r="I134" s="19"/>
+      <c r="J134" s="20"/>
+      <c r="K134" s="16"/>
+      <c r="N134" s="21"/>
+    </row>
+    <row r="135" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A135" s="102">
+        <v>15</v>
+      </c>
+      <c r="B135" s="103" t="s">
+        <v>72</v>
+      </c>
+      <c r="C135" s="82"/>
+      <c r="D135" s="92"/>
+      <c r="E135" s="83"/>
+      <c r="F135" s="83"/>
+      <c r="G135" s="85"/>
+      <c r="H135" s="84"/>
+      <c r="I135" s="85"/>
+      <c r="J135" s="86"/>
+      <c r="K135" s="16"/>
+      <c r="N135" s="21"/>
+    </row>
+    <row r="136" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="102"/>
+      <c r="B136" s="87" t="s">
+        <v>49</v>
+      </c>
+      <c r="C136" s="82">
+        <f>1*2</f>
+        <v>2</v>
+      </c>
+      <c r="D136" s="92">
+        <f>E112</f>
+        <v>3.555928070710149</v>
+      </c>
+      <c r="E136" s="83"/>
+      <c r="F136" s="83"/>
+      <c r="G136" s="79">
+        <f>PRODUCT(C136:F136)</f>
+        <v>7.1118561414202981</v>
+      </c>
+      <c r="H136" s="84"/>
+      <c r="I136" s="85"/>
+      <c r="J136" s="86"/>
+      <c r="K136" s="16"/>
+      <c r="N136" s="21"/>
+    </row>
+    <row r="137" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="102"/>
+      <c r="B137" s="87"/>
+      <c r="C137" s="82">
+        <v>2</v>
+      </c>
+      <c r="D137" s="92">
+        <f>E116</f>
+        <v>1.9811033221578787</v>
+      </c>
+      <c r="E137" s="83"/>
+      <c r="F137" s="83"/>
+      <c r="G137" s="79">
+        <f>PRODUCT(C137:F137)</f>
+        <v>3.9622066443157573</v>
+      </c>
+      <c r="H137" s="84"/>
+      <c r="I137" s="85"/>
+      <c r="J137" s="86"/>
+      <c r="K137" s="16"/>
+      <c r="N137" s="21"/>
+    </row>
+    <row r="138" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="102"/>
+      <c r="B138" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="C138" s="82"/>
+      <c r="D138" s="92"/>
+      <c r="E138" s="83"/>
+      <c r="F138" s="83"/>
+      <c r="G138" s="85">
+        <f>SUM(G136:G137)</f>
+        <v>11.074062785736055</v>
+      </c>
+      <c r="H138" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="I138" s="85">
+        <f>469.79/1.15</f>
+        <v>408.5130434782609</v>
+      </c>
+      <c r="J138" s="86">
+        <f>G138*I138</f>
+        <v>4523.8990922703842</v>
+      </c>
+      <c r="K138" s="16"/>
+      <c r="N138" s="21"/>
+    </row>
+    <row r="139" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="102"/>
+      <c r="B139" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="C139" s="82"/>
+      <c r="D139" s="92"/>
+      <c r="E139" s="83"/>
+      <c r="F139" s="83"/>
+      <c r="G139" s="85"/>
+      <c r="H139" s="84"/>
+      <c r="I139" s="85"/>
+      <c r="J139" s="86">
+        <f>G138*0.13*(2140.61/10)</f>
+        <v>308.16824401706799</v>
+      </c>
+      <c r="K139" s="16"/>
+      <c r="N139" s="21"/>
+    </row>
+    <row r="140" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="12"/>
+      <c r="B140" s="30"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="15"/>
+      <c r="E140" s="16"/>
+      <c r="F140" s="16"/>
+      <c r="G140" s="19"/>
+      <c r="H140" s="18"/>
+      <c r="I140" s="19"/>
+      <c r="J140" s="20"/>
+      <c r="K140" s="16"/>
+      <c r="N140" s="21"/>
+    </row>
+    <row r="141" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A141" s="102">
+        <v>18</v>
+      </c>
+      <c r="B141" s="103" t="s">
+        <v>75</v>
+      </c>
+      <c r="C141" s="82"/>
+      <c r="D141" s="92"/>
+      <c r="E141" s="83"/>
+      <c r="F141" s="83"/>
+      <c r="G141" s="85"/>
+      <c r="H141" s="84"/>
+      <c r="I141" s="85"/>
+      <c r="J141" s="86"/>
+      <c r="K141" s="16"/>
+      <c r="N141" s="21"/>
+    </row>
+    <row r="142" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="102"/>
+      <c r="B142" s="87" t="s">
+        <v>49</v>
+      </c>
+      <c r="C142" s="82">
+        <f>1*2</f>
+        <v>2</v>
+      </c>
+      <c r="D142" s="92">
+        <f>D136</f>
+        <v>3.555928070710149</v>
+      </c>
+      <c r="E142" s="83"/>
+      <c r="F142" s="83"/>
+      <c r="G142" s="79">
+        <f>PRODUCT(C142:F142)</f>
+        <v>7.1118561414202981</v>
+      </c>
+      <c r="H142" s="84"/>
+      <c r="I142" s="85"/>
+      <c r="J142" s="86"/>
+      <c r="K142" s="16"/>
+      <c r="N142" s="21"/>
+    </row>
+    <row r="143" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="102"/>
+      <c r="B143" s="87"/>
+      <c r="C143" s="82">
+        <v>1</v>
+      </c>
+      <c r="D143" s="92">
+        <f>E116</f>
+        <v>1.9811033221578787</v>
+      </c>
+      <c r="E143" s="83"/>
+      <c r="F143" s="83"/>
+      <c r="G143" s="79">
+        <f>PRODUCT(C143:F143)</f>
+        <v>1.9811033221578787</v>
+      </c>
+      <c r="H143" s="84"/>
+      <c r="I143" s="85"/>
+      <c r="J143" s="86"/>
+      <c r="K143" s="16"/>
+      <c r="N143" s="21"/>
+    </row>
+    <row r="144" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="102"/>
+      <c r="B144" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="C144" s="82"/>
+      <c r="D144" s="92"/>
+      <c r="E144" s="83"/>
+      <c r="F144" s="83"/>
+      <c r="G144" s="85">
+        <f>SUM(G142:G143)</f>
+        <v>9.0929594635781772</v>
+      </c>
+      <c r="H144" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="I144" s="85">
+        <f>487.71/1.15</f>
+        <v>424.09565217391304</v>
+      </c>
+      <c r="J144" s="86">
+        <f>G144*I144</f>
+        <v>3856.2845738971414</v>
+      </c>
+      <c r="K144" s="16"/>
+      <c r="N144" s="21"/>
+    </row>
+    <row r="145" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="102"/>
+      <c r="B145" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="C145" s="82"/>
+      <c r="D145" s="92"/>
+      <c r="E145" s="83"/>
+      <c r="F145" s="83"/>
+      <c r="G145" s="85"/>
+      <c r="H145" s="84"/>
+      <c r="I145" s="85"/>
+      <c r="J145" s="86">
+        <f>G144*0.13*(2972.61/10)</f>
+        <v>351.3876890033527</v>
+      </c>
+      <c r="K145" s="16"/>
+      <c r="N145" s="21"/>
+    </row>
+    <row r="146" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="12"/>
+      <c r="B146" s="22"/>
+      <c r="C146" s="14"/>
+      <c r="D146" s="15"/>
+      <c r="E146" s="16"/>
+      <c r="F146" s="16"/>
+      <c r="G146" s="19"/>
+      <c r="H146" s="18"/>
+      <c r="I146" s="19"/>
+      <c r="J146" s="20"/>
+      <c r="K146" s="16"/>
+      <c r="N146" s="21"/>
+    </row>
+    <row r="147" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A147" s="102">
+        <v>20</v>
+      </c>
+      <c r="B147" s="103" t="s">
+        <v>77</v>
+      </c>
+      <c r="C147" s="82"/>
+      <c r="D147" s="92"/>
+      <c r="E147" s="83"/>
+      <c r="F147" s="83"/>
+      <c r="G147" s="85"/>
+      <c r="H147" s="84"/>
+      <c r="I147" s="85"/>
+      <c r="J147" s="86"/>
+      <c r="K147" s="16"/>
+      <c r="N147" s="21"/>
+    </row>
+    <row r="148" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="102"/>
+      <c r="B148" s="87" t="s">
+        <v>49</v>
+      </c>
+      <c r="C148" s="82">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="D148" s="92">
+        <f>E112</f>
+        <v>3.555928070710149</v>
+      </c>
+      <c r="E148" s="83"/>
+      <c r="F148" s="83"/>
+      <c r="G148" s="79">
+        <f>PRODUCT(C148:F148)</f>
+        <v>7.1118561414202981</v>
+      </c>
+      <c r="H148" s="84"/>
+      <c r="I148" s="85"/>
+      <c r="J148" s="86"/>
+      <c r="K148" s="16"/>
+      <c r="N148" s="21"/>
+    </row>
+    <row r="149" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="102"/>
+      <c r="B149" s="87"/>
+      <c r="C149" s="82">
+        <v>1</v>
+      </c>
+      <c r="D149" s="92">
+        <f>D143</f>
+        <v>1.9811033221578787</v>
+      </c>
+      <c r="E149" s="83"/>
+      <c r="F149" s="83"/>
+      <c r="G149" s="79">
+        <f>PRODUCT(C149:F149)</f>
+        <v>1.9811033221578787</v>
+      </c>
+      <c r="H149" s="84"/>
+      <c r="I149" s="85"/>
+      <c r="J149" s="86"/>
+      <c r="K149" s="16"/>
+      <c r="N149" s="21"/>
+    </row>
+    <row r="150" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="102"/>
+      <c r="B150" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="C150" s="82"/>
+      <c r="D150" s="92"/>
+      <c r="E150" s="83"/>
+      <c r="F150" s="83"/>
+      <c r="G150" s="85">
+        <f>SUM(G148:G149)</f>
+        <v>9.0929594635781772</v>
+      </c>
+      <c r="H150" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="I150" s="85">
+        <f>465.63/1.15</f>
+        <v>404.89565217391305</v>
+      </c>
+      <c r="J150" s="86">
+        <f>G150*I150</f>
+        <v>3681.6997521964408</v>
+      </c>
+      <c r="K150" s="16"/>
+      <c r="N150" s="21"/>
+    </row>
+    <row r="151" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="102"/>
+      <c r="B151" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="C151" s="82"/>
+      <c r="D151" s="92"/>
+      <c r="E151" s="83"/>
+      <c r="F151" s="83"/>
+      <c r="G151" s="85"/>
+      <c r="H151" s="84"/>
+      <c r="I151" s="85"/>
+      <c r="J151" s="86">
+        <f>G150*0.13*(2780.61/10)</f>
+        <v>328.69166218226155</v>
+      </c>
+      <c r="K151" s="16"/>
+      <c r="N151" s="21"/>
+    </row>
+    <row r="152" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="12"/>
+      <c r="B152" s="22"/>
+      <c r="C152" s="14"/>
+      <c r="D152" s="15"/>
+      <c r="E152" s="16"/>
+      <c r="F152" s="16"/>
+      <c r="G152" s="19"/>
+      <c r="H152" s="18"/>
+      <c r="I152" s="19"/>
+      <c r="J152" s="20"/>
+      <c r="K152" s="16"/>
+      <c r="N152" s="21"/>
+    </row>
+    <row r="153" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="12">
+        <v>16</v>
+      </c>
+      <c r="B153" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="C153" s="14">
+        <v>1</v>
+      </c>
+      <c r="D153" s="15"/>
+      <c r="E153" s="16"/>
+      <c r="F153" s="16"/>
+      <c r="G153" s="37">
+        <f>PRODUCT(C153:F153)</f>
+        <v>1</v>
+      </c>
+      <c r="H153" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I153" s="19">
+        <v>1000</v>
+      </c>
+      <c r="J153" s="37">
+        <f>G153*I153</f>
+        <v>1000</v>
+      </c>
+      <c r="K153" s="16"/>
+    </row>
+    <row r="154" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="12"/>
+      <c r="B154" s="59"/>
+      <c r="C154" s="14"/>
+      <c r="D154" s="15"/>
+      <c r="E154" s="16"/>
+      <c r="F154" s="16"/>
+      <c r="G154" s="19"/>
+      <c r="H154" s="18"/>
+      <c r="I154" s="19"/>
+      <c r="J154" s="20"/>
+      <c r="K154" s="16"/>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A155" s="25"/>
+      <c r="B155" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="C155" s="63"/>
+      <c r="D155" s="64"/>
+      <c r="E155" s="64"/>
+      <c r="F155" s="64"/>
+      <c r="G155" s="20"/>
+      <c r="H155" s="20"/>
+      <c r="I155" s="20"/>
+      <c r="J155" s="20">
+        <f>SUM(J21:J153)</f>
+        <v>1255035.0709779281</v>
+      </c>
+      <c r="K155" s="30"/>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A156" s="70"/>
+      <c r="G156" s="71"/>
+      <c r="H156" s="71"/>
+      <c r="I156" s="71"/>
+      <c r="J156" s="71"/>
+    </row>
+    <row r="157" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="C157" s="132">
+        <f>J155</f>
+        <v>1255035.0709779281</v>
+      </c>
+      <c r="D157" s="132"/>
+      <c r="E157" s="132"/>
+      <c r="F157" s="65"/>
+      <c r="G157" s="66"/>
+      <c r="H157" s="65"/>
+      <c r="I157" s="67"/>
+      <c r="J157" s="68"/>
+      <c r="K157" s="69"/>
+    </row>
+    <row r="158" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="70"/>
+      <c r="B158" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="C158" s="133">
+        <f>C157*0.13</f>
+        <v>163154.55922713067</v>
+      </c>
+      <c r="D158" s="133"/>
+      <c r="E158" s="133"/>
+      <c r="G158" s="71"/>
+      <c r="H158" s="71"/>
+      <c r="I158" s="71"/>
+      <c r="J158" s="71"/>
+    </row>
+    <row r="159" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="70"/>
+      <c r="B159" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="C159" s="133">
+        <f>C157+C158</f>
+        <v>1418189.6302050587</v>
+      </c>
+      <c r="D159" s="133"/>
+      <c r="E159" s="133"/>
+      <c r="G159" s="71"/>
+      <c r="H159" s="71"/>
+      <c r="I159" s="71"/>
+      <c r="J159" s="71"/>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A160" s="70"/>
+      <c r="G160" s="71"/>
+      <c r="H160" s="71"/>
+      <c r="I160" s="71"/>
+      <c r="J160" s="71"/>
+    </row>
+    <row r="161" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="C161" s="127">
+        <f>J155</f>
+        <v>1255035.0709779281</v>
+      </c>
+      <c r="D161" s="128"/>
+      <c r="E161" s="33">
+        <v>100</v>
+      </c>
+      <c r="F161" s="65"/>
+      <c r="G161" s="66"/>
+      <c r="H161" s="65"/>
+      <c r="I161" s="67"/>
+      <c r="J161" s="68"/>
+      <c r="K161" s="69"/>
+      <c r="L161" s="73">
+        <f>J155+'Window only'!J45+'Door only'!J31+'dachi appa only'!J52</f>
+        <v>1257207.8039283338</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A162" s="70"/>
+      <c r="B162" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C162" s="130">
+        <v>1200000</v>
+      </c>
+      <c r="D162" s="131"/>
+      <c r="E162" s="33"/>
+      <c r="G162" s="71"/>
+      <c r="H162" s="71"/>
+      <c r="I162" s="71"/>
+      <c r="J162" s="71"/>
+      <c r="L162" s="118">
+        <f>J155+'Door only'!J31+'Window only'!J45+'dachi appa only'!J52</f>
+        <v>1257207.8039283338</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A163" s="70"/>
+      <c r="B163" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C163" s="130">
+        <f>C162-C165-C166</f>
+        <v>1140000</v>
+      </c>
+      <c r="D163" s="131"/>
+      <c r="E163" s="33">
+        <f>C163/C161*100</f>
+        <v>90.83411502689782</v>
+      </c>
+      <c r="G163" s="71"/>
+      <c r="H163" s="71"/>
+      <c r="I163" s="71"/>
+      <c r="J163" s="71"/>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164" s="70"/>
+      <c r="B164" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C164" s="132">
+        <f>C161-C163</f>
+        <v>115035.07097792812</v>
+      </c>
+      <c r="D164" s="132"/>
+      <c r="E164" s="33">
+        <f>100-E163</f>
+        <v>9.1658849731021803</v>
+      </c>
+      <c r="G164" s="71"/>
+      <c r="H164" s="71"/>
+      <c r="I164" s="71"/>
+      <c r="J164" s="71"/>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165" s="70"/>
+      <c r="B165" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C165" s="127">
+        <f>C162*0.03</f>
+        <v>36000</v>
+      </c>
+      <c r="D165" s="128"/>
+      <c r="E165" s="33">
+        <v>3</v>
+      </c>
+      <c r="G165" s="71"/>
+      <c r="H165" s="71"/>
+      <c r="I165" s="71"/>
+      <c r="J165" s="71"/>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166" s="70"/>
+      <c r="B166" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C166" s="127">
+        <f>C162*0.02</f>
+        <v>24000</v>
+      </c>
+      <c r="D166" s="128"/>
+      <c r="E166" s="33">
+        <v>2</v>
+      </c>
+      <c r="G166" s="71"/>
+      <c r="H166" s="71"/>
+      <c r="I166" s="71"/>
+      <c r="J166" s="71"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="C157:E157"/>
+    <mergeCell ref="C158:E158"/>
+    <mergeCell ref="C159:E159"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="H5:K5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S72"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="99" zoomScaleNormal="99" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:XFD60"/>
+    <sheetView topLeftCell="A42" zoomScale="99" zoomScaleNormal="99" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58:J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10267,117 +14003,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
       <c r="M1"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
       <c r="M2"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
       <c r="M3"/>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
       <c r="M4"/>
     </row>
     <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="121" t="s">
+      <c r="A5" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="117" t="s">
+      <c r="A6" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="117"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="113" t="s">
+      <c r="H6" s="122" t="s">
         <v>130</v>
       </c>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="113"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="129" t="s">
         <v>147</v>
       </c>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="113" t="s">
+      <c r="H7" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
     </row>
     <row r="8" spans="1:19" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -11393,7 +15129,7 @@
       <c r="I53" s="79"/>
       <c r="J53" s="80"/>
       <c r="K53" s="30"/>
-      <c r="M53" s="133">
+      <c r="M53" s="119">
         <f>G44+G58</f>
         <v>0.14318395124429445</v>
       </c>
@@ -11582,12 +15318,12 @@
       <c r="B63" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C63" s="116">
+      <c r="C63" s="132">
         <f>J61</f>
         <v>149468.7214264322</v>
       </c>
-      <c r="D63" s="116"/>
-      <c r="E63" s="116"/>
+      <c r="D63" s="132"/>
+      <c r="E63" s="132"/>
       <c r="F63" s="65"/>
       <c r="G63" s="66"/>
       <c r="H63" s="65"/>
@@ -11600,33 +15336,33 @@
       <c r="B64" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="C64" s="123">
+      <c r="C64" s="133">
         <f>C63*0.13</f>
         <v>19430.933785436187</v>
       </c>
-      <c r="D64" s="123"/>
-      <c r="E64" s="123"/>
+      <c r="D64" s="133"/>
+      <c r="E64" s="133"/>
     </row>
     <row r="65" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B65" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="C65" s="123">
+      <c r="C65" s="133">
         <f>C63+C64</f>
         <v>168899.65521186838</v>
       </c>
-      <c r="D65" s="123"/>
-      <c r="E65" s="123"/>
+      <c r="D65" s="133"/>
+      <c r="E65" s="133"/>
     </row>
     <row r="67" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C67" s="110">
+      <c r="C67" s="127">
         <f>J61</f>
         <v>149468.7214264322</v>
       </c>
-      <c r="D67" s="111"/>
+      <c r="D67" s="128"/>
       <c r="E67" s="33">
         <v>100</v>
       </c>
@@ -11642,21 +15378,21 @@
       <c r="B68" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="C68" s="114">
+      <c r="C68" s="130">
         <v>1200000</v>
       </c>
-      <c r="D68" s="115"/>
+      <c r="D68" s="131"/>
       <c r="E68" s="33"/>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B69" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="C69" s="114">
+      <c r="C69" s="130">
         <f>C68-C71-C72</f>
         <v>1140000</v>
       </c>
-      <c r="D69" s="115"/>
+      <c r="D69" s="131"/>
       <c r="E69" s="33">
         <f>C69/C67*100</f>
         <v>762.70137933915669</v>
@@ -11666,11 +15402,11 @@
       <c r="B70" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="C70" s="116">
+      <c r="C70" s="132">
         <f>C67-C69</f>
         <v>-990531.27857356775</v>
       </c>
-      <c r="D70" s="116"/>
+      <c r="D70" s="132"/>
       <c r="E70" s="33">
         <f>100-E69</f>
         <v>-662.70137933915669</v>
@@ -11680,11 +15416,11 @@
       <c r="B71" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="C71" s="110">
+      <c r="C71" s="127">
         <f>C68*0.03</f>
         <v>36000</v>
       </c>
-      <c r="D71" s="111"/>
+      <c r="D71" s="128"/>
       <c r="E71" s="33">
         <v>3</v>
       </c>
@@ -11693,17 +15429,22 @@
       <c r="B72" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="C72" s="110">
+      <c r="C72" s="127">
         <f>C68*0.02</f>
         <v>24000</v>
       </c>
-      <c r="D72" s="111"/>
+      <c r="D72" s="128"/>
       <c r="E72" s="33">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
     <mergeCell ref="C67:D67"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
@@ -11717,11 +15458,6 @@
     <mergeCell ref="C63:E63"/>
     <mergeCell ref="C64:E64"/>
     <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11735,12 +15471,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="99" zoomScaleNormal="99" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="A33" zoomScale="99" zoomScaleNormal="99" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33:J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11761,117 +15497,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
       <c r="M1"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
       <c r="M2"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
       <c r="M3"/>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
       <c r="M4"/>
     </row>
     <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="121" t="s">
+      <c r="A5" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="117" t="s">
+      <c r="A6" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="117"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="113" t="s">
+      <c r="H6" s="122" t="s">
         <v>130</v>
       </c>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="113"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="129" t="s">
         <v>147</v>
       </c>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="113" t="s">
+      <c r="H7" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
     </row>
     <row r="8" spans="1:19" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -12554,7 +16290,7 @@
       <c r="I39" s="45"/>
       <c r="J39" s="39"/>
       <c r="K39" s="30"/>
-      <c r="N39" s="132">
+      <c r="N39" s="118">
         <f>G33+G44</f>
         <v>0.12244943253156436</v>
       </c>
@@ -12595,7 +16331,7 @@
         <v>5.0797521080971242E-2</v>
       </c>
       <c r="G41" s="79">
-        <f t="shared" ref="G41:G43" si="0">PRODUCT(C41:F41)</f>
+        <f>PRODUCT(C41:F41)</f>
         <v>2.1234526057676433E-2</v>
       </c>
       <c r="H41" s="79"/>
@@ -12622,7 +16358,7 @@
         <v>5.0797521080971242E-2</v>
       </c>
       <c r="G42" s="79">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(C42:F42)</f>
         <v>6.2917114244967201E-3</v>
       </c>
       <c r="H42" s="79"/>
@@ -12649,7 +16385,7 @@
         <v>5.0797521080971242E-2</v>
       </c>
       <c r="G43" s="79">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(C43:F43)</f>
         <v>9.8307991007761299E-3</v>
       </c>
       <c r="H43" s="79"/>
@@ -12739,12 +16475,12 @@
       <c r="B49" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C49" s="116">
+      <c r="C49" s="132">
         <f>J47</f>
         <v>185580.17052471481</v>
       </c>
-      <c r="D49" s="116"/>
-      <c r="E49" s="116"/>
+      <c r="D49" s="132"/>
+      <c r="E49" s="132"/>
       <c r="F49" s="65"/>
       <c r="G49" s="66"/>
       <c r="H49" s="65"/>
@@ -12757,33 +16493,33 @@
       <c r="B50" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="C50" s="123">
+      <c r="C50" s="133">
         <f>C49*0.13</f>
         <v>24125.422168212925</v>
       </c>
-      <c r="D50" s="123"/>
-      <c r="E50" s="123"/>
+      <c r="D50" s="133"/>
+      <c r="E50" s="133"/>
     </row>
     <row r="51" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="C51" s="123">
+      <c r="C51" s="133">
         <f>C49+C50</f>
         <v>209705.59269292772</v>
       </c>
-      <c r="D51" s="123"/>
-      <c r="E51" s="123"/>
+      <c r="D51" s="133"/>
+      <c r="E51" s="133"/>
     </row>
     <row r="53" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="110">
+      <c r="C53" s="127">
         <f>J47</f>
         <v>185580.17052471481</v>
       </c>
-      <c r="D53" s="111"/>
+      <c r="D53" s="128"/>
       <c r="E53" s="33">
         <v>100</v>
       </c>
@@ -12799,21 +16535,21 @@
       <c r="B54" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="C54" s="114">
+      <c r="C54" s="130">
         <v>1200000</v>
       </c>
-      <c r="D54" s="115"/>
+      <c r="D54" s="131"/>
       <c r="E54" s="33"/>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="C55" s="114">
+      <c r="C55" s="130">
         <f>C54-C57-C58</f>
         <v>1140000</v>
       </c>
-      <c r="D55" s="115"/>
+      <c r="D55" s="131"/>
       <c r="E55" s="33">
         <f>C55/C53*100</f>
         <v>614.28976855486803</v>
@@ -12823,11 +16559,11 @@
       <c r="B56" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="C56" s="116">
+      <c r="C56" s="132">
         <f>C53-C55</f>
         <v>-954419.82947528525</v>
       </c>
-      <c r="D56" s="116"/>
+      <c r="D56" s="132"/>
       <c r="E56" s="33">
         <f>100-E55</f>
         <v>-514.28976855486803</v>
@@ -12837,11 +16573,11 @@
       <c r="B57" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="C57" s="110">
+      <c r="C57" s="127">
         <f>C54*0.03</f>
         <v>36000</v>
       </c>
-      <c r="D57" s="111"/>
+      <c r="D57" s="128"/>
       <c r="E57" s="33">
         <v>3</v>
       </c>
@@ -12850,23 +16586,28 @@
       <c r="B58" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="C58" s="110">
+      <c r="C58" s="127">
         <f>C54*0.02</f>
         <v>24000</v>
       </c>
-      <c r="D58" s="111"/>
+      <c r="D58" s="128"/>
       <c r="E58" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J60" s="134">
+      <c r="J60" s="120">
         <f>J47+'Window only'!J61</f>
         <v>335048.891951147</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
@@ -12880,11 +16621,6 @@
     <mergeCell ref="C49:E49"/>
     <mergeCell ref="C50:E50"/>
     <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -12898,12 +16634,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S79"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" zoomScale="99" zoomScaleNormal="99" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="J80" sqref="J80"/>
+    <sheetView topLeftCell="A56" zoomScale="99" zoomScaleNormal="99" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12924,117 +16660,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
       <c r="M1"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
       <c r="M2"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
       <c r="M3"/>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
       <c r="M4"/>
     </row>
     <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="121" t="s">
+      <c r="A5" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="117" t="s">
+      <c r="A6" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="117"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="113" t="s">
+      <c r="H6" s="122" t="s">
         <v>130</v>
       </c>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="113"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="129" t="s">
         <v>147</v>
       </c>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="113" t="s">
+      <c r="H7" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
     </row>
     <row r="8" spans="1:19" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -14366,12 +18102,12 @@
       <c r="B70" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C70" s="116">
+      <c r="C70" s="132">
         <f>J68</f>
         <v>147809.06061101198</v>
       </c>
-      <c r="D70" s="116"/>
-      <c r="E70" s="116"/>
+      <c r="D70" s="132"/>
+      <c r="E70" s="132"/>
       <c r="F70" s="65"/>
       <c r="G70" s="66"/>
       <c r="H70" s="65"/>
@@ -14384,33 +18120,33 @@
       <c r="B71" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="C71" s="123">
+      <c r="C71" s="133">
         <f>C70*0.13</f>
         <v>19215.177879431558</v>
       </c>
-      <c r="D71" s="123"/>
-      <c r="E71" s="123"/>
+      <c r="D71" s="133"/>
+      <c r="E71" s="133"/>
     </row>
     <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="123">
+      <c r="C72" s="133">
         <f>C70+C71</f>
         <v>167024.23849044353</v>
       </c>
-      <c r="D72" s="123"/>
-      <c r="E72" s="123"/>
+      <c r="D72" s="133"/>
+      <c r="E72" s="133"/>
     </row>
     <row r="74" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C74" s="110">
+      <c r="C74" s="127">
         <f>J68</f>
         <v>147809.06061101198</v>
       </c>
-      <c r="D74" s="111"/>
+      <c r="D74" s="128"/>
       <c r="E74" s="33">
         <v>100</v>
       </c>
@@ -14426,21 +18162,21 @@
       <c r="B75" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="C75" s="114">
+      <c r="C75" s="130">
         <v>1200000</v>
       </c>
-      <c r="D75" s="115"/>
+      <c r="D75" s="131"/>
       <c r="E75" s="33"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B76" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="C76" s="114">
+      <c r="C76" s="130">
         <f>C75-C78-C79</f>
         <v>1140000</v>
       </c>
-      <c r="D76" s="115"/>
+      <c r="D76" s="131"/>
       <c r="E76" s="33">
         <f>C76/C74*100</f>
         <v>771.2653035527569</v>
@@ -14450,11 +18186,11 @@
       <c r="B77" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="C77" s="116">
+      <c r="C77" s="132">
         <f>C74-C76</f>
         <v>-992190.93938898807</v>
       </c>
-      <c r="D77" s="116"/>
+      <c r="D77" s="132"/>
       <c r="E77" s="33">
         <f>100-E76</f>
         <v>-671.2653035527569</v>
@@ -14464,11 +18200,11 @@
       <c r="B78" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="C78" s="110">
+      <c r="C78" s="127">
         <f>C75*0.03</f>
         <v>36000</v>
       </c>
-      <c r="D78" s="111"/>
+      <c r="D78" s="128"/>
       <c r="E78" s="33">
         <v>3</v>
       </c>
@@ -14477,17 +18213,22 @@
       <c r="B79" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="C79" s="110">
+      <c r="C79" s="127">
         <f>C75*0.02</f>
         <v>24000</v>
       </c>
-      <c r="D79" s="111"/>
+      <c r="D79" s="128"/>
       <c r="E79" s="33">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
@@ -14501,11 +18242,6 @@
     <mergeCell ref="C70:E70"/>
     <mergeCell ref="C71:E71"/>
     <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -14545,113 +18281,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="121" t="s">
+      <c r="A5" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="117" t="s">
+      <c r="A6" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="117"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="113" t="s">
+      <c r="H6" s="122" t="s">
         <v>130</v>
       </c>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="113"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="129" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="113" t="s">
+      <c r="H7" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
     </row>
     <row r="8" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -19949,12 +23685,12 @@
       <c r="B239" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C239" s="116">
+      <c r="C239" s="132">
         <f>J237</f>
         <v>2108070.4791162037</v>
       </c>
-      <c r="D239" s="116"/>
-      <c r="E239" s="116"/>
+      <c r="D239" s="132"/>
+      <c r="E239" s="132"/>
       <c r="F239" s="65"/>
       <c r="G239" s="66"/>
       <c r="H239" s="65"/>
@@ -19966,21 +23702,21 @@
       <c r="B240" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="C240" s="122">
+      <c r="C240" s="134">
         <v>2250000</v>
       </c>
-      <c r="D240" s="122"/>
+      <c r="D240" s="134"/>
       <c r="E240" s="33"/>
     </row>
     <row r="241" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B241" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="C241" s="122">
+      <c r="C241" s="134">
         <f>C240-C243-C244</f>
         <v>2137500</v>
       </c>
-      <c r="D241" s="122"/>
+      <c r="D241" s="134"/>
       <c r="E241" s="33">
         <f>C241/C239*100</f>
         <v>101.39604065306843</v>
@@ -19990,11 +23726,11 @@
       <c r="B242" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="C242" s="116">
+      <c r="C242" s="132">
         <f>C239-C241</f>
         <v>-29429.520883796271</v>
       </c>
-      <c r="D242" s="116"/>
+      <c r="D242" s="132"/>
       <c r="E242" s="33">
         <f>100-E241</f>
         <v>-1.3960406530684253</v>
@@ -20004,11 +23740,11 @@
       <c r="B243" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="C243" s="116">
+      <c r="C243" s="132">
         <f>C240*0.03</f>
         <v>67500</v>
       </c>
-      <c r="D243" s="116"/>
+      <c r="D243" s="132"/>
       <c r="E243" s="33">
         <v>3</v>
       </c>
@@ -20017,11 +23753,11 @@
       <c r="B244" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="C244" s="116">
+      <c r="C244" s="132">
         <f>C240*0.02</f>
         <v>45000</v>
       </c>
-      <c r="D244" s="116"/>
+      <c r="D244" s="132"/>
       <c r="E244" s="33">
         <v>2</v>
       </c>
@@ -20030,36 +23766,26 @@
       <c r="B245" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="C245" s="123">
+      <c r="C245" s="133">
         <f>C239*0.13</f>
         <v>274049.16228510649</v>
       </c>
-      <c r="D245" s="123"/>
-      <c r="E245" s="123"/>
+      <c r="D245" s="133"/>
+      <c r="E245" s="133"/>
     </row>
     <row r="246" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B246" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="C246" s="123">
+      <c r="C246" s="133">
         <f>C239+C245</f>
         <v>2382119.6414013105</v>
       </c>
-      <c r="D246" s="123"/>
-      <c r="E246" s="123"/>
+      <c r="D246" s="133"/>
+      <c r="E246" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C243:D243"/>
-    <mergeCell ref="C244:D244"/>
-    <mergeCell ref="C245:E245"/>
-    <mergeCell ref="C246:E246"/>
-    <mergeCell ref="C239:E239"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C240:D240"/>
-    <mergeCell ref="C241:D241"/>
-    <mergeCell ref="C242:D242"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="A1:K1"/>
@@ -20067,6 +23793,16 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C240:D240"/>
+    <mergeCell ref="C241:D241"/>
+    <mergeCell ref="C242:D242"/>
+    <mergeCell ref="C243:D243"/>
+    <mergeCell ref="C244:D244"/>
+    <mergeCell ref="C245:E245"/>
+    <mergeCell ref="C246:E246"/>
+    <mergeCell ref="C239:E239"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20105,113 +23841,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
     </row>
     <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="121" t="s">
+      <c r="A5" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="117" t="s">
+      <c r="A6" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="117"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="113" t="s">
+      <c r="H6" s="122" t="s">
         <v>130</v>
       </c>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="113"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="129" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="113" t="s">
+      <c r="H7" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
     </row>
     <row r="8" spans="1:19" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -20997,12 +24733,12 @@
       <c r="B45" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C45" s="116">
+      <c r="C45" s="132">
         <f>J43</f>
         <v>735603.14628856385</v>
       </c>
-      <c r="D45" s="116"/>
-      <c r="E45" s="116"/>
+      <c r="D45" s="132"/>
+      <c r="E45" s="132"/>
       <c r="F45" s="65"/>
       <c r="G45" s="66"/>
       <c r="H45" s="65"/>
@@ -21014,21 +24750,21 @@
       <c r="B46" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="C46" s="122">
+      <c r="C46" s="134">
         <v>2250000</v>
       </c>
-      <c r="D46" s="122"/>
+      <c r="D46" s="134"/>
       <c r="E46" s="33"/>
     </row>
     <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="C47" s="122">
+      <c r="C47" s="134">
         <f>C46-C49-C50</f>
         <v>2137500</v>
       </c>
-      <c r="D47" s="122"/>
+      <c r="D47" s="134"/>
       <c r="E47" s="33">
         <f>C47/C45*100</f>
         <v>290.57787623457193</v>
@@ -21038,11 +24774,11 @@
       <c r="B48" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="C48" s="116">
+      <c r="C48" s="132">
         <f>C45-C47</f>
         <v>-1401896.853711436</v>
       </c>
-      <c r="D48" s="116"/>
+      <c r="D48" s="132"/>
       <c r="E48" s="33">
         <f>100-E47</f>
         <v>-190.57787623457193</v>
@@ -21052,11 +24788,11 @@
       <c r="B49" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="C49" s="116">
+      <c r="C49" s="132">
         <f>C46*0.03</f>
         <v>67500</v>
       </c>
-      <c r="D49" s="116"/>
+      <c r="D49" s="132"/>
       <c r="E49" s="33">
         <v>3</v>
       </c>
@@ -21065,11 +24801,11 @@
       <c r="B50" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="C50" s="116">
+      <c r="C50" s="132">
         <f>C46*0.02</f>
         <v>45000</v>
       </c>
-      <c r="D50" s="116"/>
+      <c r="D50" s="132"/>
       <c r="E50" s="33">
         <v>2</v>
       </c>
@@ -21078,26 +24814,36 @@
       <c r="B51" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="C51" s="123">
+      <c r="C51" s="133">
         <f>C45*0.13</f>
         <v>95628.409017513302</v>
       </c>
-      <c r="D51" s="123"/>
-      <c r="E51" s="123"/>
+      <c r="D51" s="133"/>
+      <c r="E51" s="133"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="C52" s="123">
+      <c r="C52" s="133">
         <f>C45+C51</f>
         <v>831231.55530607712</v>
       </c>
-      <c r="D52" s="123"/>
-      <c r="E52" s="123"/>
+      <c r="D52" s="133"/>
+      <c r="E52" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="A1:K1"/>
@@ -21105,16 +24851,6 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="A7:F7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21153,113 +24889,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
     </row>
     <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="121" t="s">
+      <c r="A5" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="117" t="s">
+      <c r="A6" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="117"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="113" t="s">
+      <c r="H6" s="122" t="s">
         <v>130</v>
       </c>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="113"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="129" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="113" t="s">
+      <c r="H7" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
     </row>
     <row r="8" spans="1:19" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -22654,12 +26390,12 @@
       <c r="B73" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C73" s="116">
+      <c r="C73" s="132">
         <f>J71</f>
         <v>1103945.3112279128</v>
       </c>
-      <c r="D73" s="116"/>
-      <c r="E73" s="116"/>
+      <c r="D73" s="132"/>
+      <c r="E73" s="132"/>
       <c r="F73" s="65"/>
       <c r="G73" s="66"/>
       <c r="H73" s="65"/>
@@ -22671,21 +26407,21 @@
       <c r="B74" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="C74" s="122">
+      <c r="C74" s="134">
         <v>2250000</v>
       </c>
-      <c r="D74" s="122"/>
+      <c r="D74" s="134"/>
       <c r="E74" s="33"/>
     </row>
     <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="C75" s="122">
+      <c r="C75" s="134">
         <f>C74-C77-C78</f>
         <v>2137500</v>
       </c>
-      <c r="D75" s="122"/>
+      <c r="D75" s="134"/>
       <c r="E75" s="33">
         <f>C75/C73*100</f>
         <v>193.62372195978347</v>
@@ -22695,11 +26431,11 @@
       <c r="B76" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="C76" s="116">
+      <c r="C76" s="132">
         <f>C73-C75</f>
         <v>-1033554.6887720872</v>
       </c>
-      <c r="D76" s="116"/>
+      <c r="D76" s="132"/>
       <c r="E76" s="33">
         <f>100-E75</f>
         <v>-93.623721959783467</v>
@@ -22709,11 +26445,11 @@
       <c r="B77" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="C77" s="116">
+      <c r="C77" s="132">
         <f>C74*0.03</f>
         <v>67500</v>
       </c>
-      <c r="D77" s="116"/>
+      <c r="D77" s="132"/>
       <c r="E77" s="33">
         <v>3</v>
       </c>
@@ -22722,11 +26458,11 @@
       <c r="B78" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="C78" s="116">
+      <c r="C78" s="132">
         <f>C74*0.02</f>
         <v>45000</v>
       </c>
-      <c r="D78" s="116"/>
+      <c r="D78" s="132"/>
       <c r="E78" s="33">
         <v>2</v>
       </c>
@@ -22735,36 +26471,26 @@
       <c r="B79" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="C79" s="123">
+      <c r="C79" s="133">
         <f>C73*0.13</f>
         <v>143512.89045962866</v>
       </c>
-      <c r="D79" s="123"/>
-      <c r="E79" s="123"/>
+      <c r="D79" s="133"/>
+      <c r="E79" s="133"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B80" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="C80" s="123">
+      <c r="C80" s="133">
         <f>C73+C79</f>
         <v>1247458.2016875413</v>
       </c>
-      <c r="D80" s="123"/>
-      <c r="E80" s="123"/>
+      <c r="D80" s="133"/>
+      <c r="E80" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="A1:K1"/>
@@ -22772,6 +26498,16 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="A7:F7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22810,113 +26546,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
     </row>
     <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="121" t="s">
+      <c r="A5" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="117" t="s">
+      <c r="A6" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="117"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="113" t="s">
+      <c r="H6" s="122" t="s">
         <v>130</v>
       </c>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="113"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="129" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="113" t="s">
+      <c r="H7" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
     </row>
     <row r="8" spans="1:19" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -24336,12 +28072,12 @@
       <c r="B74" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C74" s="116">
+      <c r="C74" s="132">
         <f>J72</f>
         <v>1192250.0184956598</v>
       </c>
-      <c r="D74" s="116"/>
-      <c r="E74" s="116"/>
+      <c r="D74" s="132"/>
+      <c r="E74" s="132"/>
       <c r="F74" s="65"/>
       <c r="G74" s="66"/>
       <c r="H74" s="65"/>
@@ -24353,21 +28089,21 @@
       <c r="B75" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="C75" s="122">
+      <c r="C75" s="134">
         <v>2250000</v>
       </c>
-      <c r="D75" s="122"/>
+      <c r="D75" s="134"/>
       <c r="E75" s="33"/>
     </row>
     <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B76" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="C76" s="122">
+      <c r="C76" s="134">
         <f>C75-C78-C79</f>
         <v>2137500</v>
       </c>
-      <c r="D76" s="122"/>
+      <c r="D76" s="134"/>
       <c r="E76" s="33">
         <f>C76/C74*100</f>
         <v>179.2828657446384</v>
@@ -24377,11 +28113,11 @@
       <c r="B77" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="C77" s="116">
+      <c r="C77" s="132">
         <f>C74-C76</f>
         <v>-945249.98150434019</v>
       </c>
-      <c r="D77" s="116"/>
+      <c r="D77" s="132"/>
       <c r="E77" s="33">
         <f>100-E76</f>
         <v>-79.2828657446384</v>
@@ -24391,11 +28127,11 @@
       <c r="B78" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="C78" s="116">
+      <c r="C78" s="132">
         <f>C75*0.03</f>
         <v>67500</v>
       </c>
-      <c r="D78" s="116"/>
+      <c r="D78" s="132"/>
       <c r="E78" s="33">
         <v>3</v>
       </c>
@@ -24404,11 +28140,11 @@
       <c r="B79" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="C79" s="116">
+      <c r="C79" s="132">
         <f>C75*0.02</f>
         <v>45000</v>
       </c>
-      <c r="D79" s="116"/>
+      <c r="D79" s="132"/>
       <c r="E79" s="33">
         <v>2</v>
       </c>
@@ -24417,36 +28153,26 @@
       <c r="B80" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="C80" s="123">
+      <c r="C80" s="133">
         <f>C74*0.13</f>
         <v>154992.50240443577</v>
       </c>
-      <c r="D80" s="123"/>
-      <c r="E80" s="123"/>
+      <c r="D80" s="133"/>
+      <c r="E80" s="133"/>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="C81" s="123">
+      <c r="C81" s="133">
         <f>C74+C80</f>
         <v>1347242.5209000956</v>
       </c>
-      <c r="D81" s="123"/>
-      <c r="E81" s="123"/>
+      <c r="D81" s="133"/>
+      <c r="E81" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="A1:K1"/>
@@ -24454,6 +28180,16 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="A7:F7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24492,113 +28228,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
     </row>
     <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="121" t="s">
+      <c r="A5" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="117" t="s">
+      <c r="A6" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="117"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="113" t="s">
+      <c r="H6" s="122" t="s">
         <v>130</v>
       </c>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="113"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="129" t="s">
         <v>147</v>
       </c>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="113" t="s">
+      <c r="H7" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
     </row>
     <row r="8" spans="1:19" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -26638,12 +30374,12 @@
       <c r="B102" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C102" s="116">
+      <c r="C102" s="132">
         <f>J100</f>
         <v>1344202.2278966988</v>
       </c>
-      <c r="D102" s="116"/>
-      <c r="E102" s="116"/>
+      <c r="D102" s="132"/>
+      <c r="E102" s="132"/>
       <c r="F102" s="65"/>
       <c r="G102" s="66"/>
       <c r="H102" s="65"/>
@@ -26655,33 +30391,33 @@
       <c r="B103" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="C103" s="123">
+      <c r="C103" s="133">
         <f>C102*0.13</f>
         <v>174746.28962657086</v>
       </c>
-      <c r="D103" s="123"/>
-      <c r="E103" s="123"/>
+      <c r="D103" s="133"/>
+      <c r="E103" s="133"/>
     </row>
     <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B104" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="C104" s="123">
+      <c r="C104" s="133">
         <f>C102+C103</f>
         <v>1518948.5175232696</v>
       </c>
-      <c r="D104" s="123"/>
-      <c r="E104" s="123"/>
+      <c r="D104" s="133"/>
+      <c r="E104" s="133"/>
     </row>
     <row r="106" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B106" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C106" s="110">
+      <c r="C106" s="127">
         <f>J100</f>
         <v>1344202.2278966988</v>
       </c>
-      <c r="D106" s="111"/>
+      <c r="D106" s="128"/>
       <c r="E106" s="33">
         <v>100</v>
       </c>
@@ -26696,21 +30432,21 @@
       <c r="B107" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="C107" s="114">
+      <c r="C107" s="130">
         <v>1200000</v>
       </c>
-      <c r="D107" s="115"/>
+      <c r="D107" s="131"/>
       <c r="E107" s="33"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B108" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="C108" s="114">
+      <c r="C108" s="130">
         <f>C107-C110-C111</f>
         <v>1140000</v>
       </c>
-      <c r="D108" s="115"/>
+      <c r="D108" s="131"/>
       <c r="E108" s="33">
         <f>C108/C106*100</f>
         <v>84.808667649939977</v>
@@ -26720,11 +30456,11 @@
       <c r="B109" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="C109" s="116">
+      <c r="C109" s="132">
         <f>C106-C108</f>
         <v>204202.22789669875</v>
       </c>
-      <c r="D109" s="116"/>
+      <c r="D109" s="132"/>
       <c r="E109" s="33">
         <f>100-E108</f>
         <v>15.191332350060023</v>
@@ -26734,11 +30470,11 @@
       <c r="B110" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="C110" s="110">
+      <c r="C110" s="127">
         <f>C107*0.03</f>
         <v>36000</v>
       </c>
-      <c r="D110" s="111"/>
+      <c r="D110" s="128"/>
       <c r="E110" s="33">
         <v>3</v>
       </c>
@@ -26747,28 +30483,17 @@
       <c r="B111" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="C111" s="110">
+      <c r="C111" s="127">
         <f>C107*0.02</f>
         <v>24000</v>
       </c>
-      <c r="D111" s="111"/>
+      <c r="D111" s="128"/>
       <c r="E111" s="33">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C103:E103"/>
-    <mergeCell ref="C104:E104"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C102:E102"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C107:D107"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="A1:K1"/>
@@ -26776,6 +30501,17 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C102:E102"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C103:E103"/>
+    <mergeCell ref="C104:E104"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C108:D108"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -26815,113 +30551,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
     </row>
     <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="121" t="s">
+      <c r="A5" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="117" t="s">
+      <c r="A6" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="117"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="113" t="s">
+      <c r="H6" s="122" t="s">
         <v>130</v>
       </c>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="113"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="129" t="s">
         <v>147</v>
       </c>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="113" t="s">
+      <c r="H7" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
     </row>
     <row r="8" spans="1:19" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -30368,12 +34104,12 @@
       <c r="B165" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C165" s="116">
+      <c r="C165" s="132">
         <f>J163</f>
         <v>1443212.753161883</v>
       </c>
-      <c r="D165" s="116"/>
-      <c r="E165" s="116"/>
+      <c r="D165" s="132"/>
+      <c r="E165" s="132"/>
       <c r="F165" s="65"/>
       <c r="G165" s="66"/>
       <c r="H165" s="65"/>
@@ -30385,33 +34121,33 @@
       <c r="B166" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="C166" s="123">
+      <c r="C166" s="133">
         <f>C165*0.13</f>
         <v>187617.65791104481</v>
       </c>
-      <c r="D166" s="123"/>
-      <c r="E166" s="123"/>
+      <c r="D166" s="133"/>
+      <c r="E166" s="133"/>
     </row>
     <row r="167" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B167" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="C167" s="123">
+      <c r="C167" s="133">
         <f>C165+C166</f>
         <v>1630830.4110729278</v>
       </c>
-      <c r="D167" s="123"/>
-      <c r="E167" s="123"/>
+      <c r="D167" s="133"/>
+      <c r="E167" s="133"/>
     </row>
     <row r="169" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B169" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C169" s="110">
+      <c r="C169" s="127">
         <f>J163</f>
         <v>1443212.753161883</v>
       </c>
-      <c r="D169" s="111"/>
+      <c r="D169" s="128"/>
       <c r="E169" s="33">
         <v>100</v>
       </c>
@@ -30426,21 +34162,21 @@
       <c r="B170" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="C170" s="114">
+      <c r="C170" s="130">
         <v>1275000</v>
       </c>
-      <c r="D170" s="115"/>
+      <c r="D170" s="131"/>
       <c r="E170" s="33"/>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B171" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="C171" s="114">
+      <c r="C171" s="130">
         <f>C170-C173-C174</f>
         <v>1211250</v>
       </c>
-      <c r="D171" s="115"/>
+      <c r="D171" s="131"/>
       <c r="E171" s="33">
         <f>C171/C169*100</f>
         <v>83.927334853874854</v>
@@ -30450,11 +34186,11 @@
       <c r="B172" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="C172" s="116">
+      <c r="C172" s="132">
         <f>C169-C171</f>
         <v>231962.75316188298</v>
       </c>
-      <c r="D172" s="116"/>
+      <c r="D172" s="132"/>
       <c r="E172" s="33">
         <f>100-E171</f>
         <v>16.072665146125146</v>
@@ -30464,11 +34200,11 @@
       <c r="B173" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="C173" s="110">
+      <c r="C173" s="127">
         <f>C170*0.03</f>
         <v>38250</v>
       </c>
-      <c r="D173" s="111"/>
+      <c r="D173" s="128"/>
       <c r="E173" s="33">
         <v>3</v>
       </c>
@@ -30477,22 +34213,17 @@
       <c r="B174" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="C174" s="110">
+      <c r="C174" s="127">
         <f>C170*0.02</f>
         <v>25500</v>
       </c>
-      <c r="D174" s="111"/>
+      <c r="D174" s="128"/>
       <c r="E174" s="33">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="C171:D171"/>
-    <mergeCell ref="C172:D172"/>
-    <mergeCell ref="C173:D173"/>
-    <mergeCell ref="C174:D174"/>
     <mergeCell ref="C169:D169"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
@@ -30506,6 +34237,11 @@
     <mergeCell ref="C165:E165"/>
     <mergeCell ref="C166:E166"/>
     <mergeCell ref="C167:E167"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="C171:D171"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="C174:D174"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -30546,117 +34282,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
       <c r="M1"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
       <c r="M2"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
       <c r="M3"/>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
       <c r="M4"/>
     </row>
     <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="121" t="s">
+      <c r="A5" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="117" t="s">
+      <c r="A6" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="117"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="113" t="s">
+      <c r="H6" s="122" t="s">
         <v>130</v>
       </c>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="113"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="129" t="s">
         <v>147</v>
       </c>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="113" t="s">
+      <c r="H7" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
     </row>
     <row r="8" spans="1:19" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -31875,17 +35611,17 @@
       <c r="K56" s="30"/>
     </row>
     <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="124"/>
-      <c r="B57" s="125"/>
-      <c r="C57" s="126"/>
-      <c r="D57" s="127"/>
-      <c r="E57" s="127"/>
-      <c r="F57" s="127"/>
-      <c r="G57" s="128"/>
-      <c r="H57" s="128"/>
-      <c r="I57" s="129"/>
-      <c r="J57" s="130"/>
-      <c r="K57" s="131"/>
+      <c r="A57" s="110"/>
+      <c r="B57" s="111"/>
+      <c r="C57" s="112"/>
+      <c r="D57" s="113"/>
+      <c r="E57" s="113"/>
+      <c r="F57" s="113"/>
+      <c r="G57" s="114"/>
+      <c r="H57" s="114"/>
+      <c r="I57" s="115"/>
+      <c r="J57" s="116"/>
+      <c r="K57" s="117"/>
     </row>
     <row r="58" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="25">
@@ -34059,12 +37795,12 @@
       <c r="B156" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C156" s="116">
+      <c r="C156" s="132">
         <f>J154</f>
         <v>1111010.1897357472</v>
       </c>
-      <c r="D156" s="116"/>
-      <c r="E156" s="116"/>
+      <c r="D156" s="132"/>
+      <c r="E156" s="132"/>
       <c r="F156" s="65"/>
       <c r="G156" s="66"/>
       <c r="H156" s="65"/>
@@ -34077,33 +37813,33 @@
       <c r="B157" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="C157" s="123">
+      <c r="C157" s="133">
         <f>C156*0.13</f>
         <v>144431.32466564715</v>
       </c>
-      <c r="D157" s="123"/>
-      <c r="E157" s="123"/>
+      <c r="D157" s="133"/>
+      <c r="E157" s="133"/>
     </row>
     <row r="158" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B158" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="C158" s="123">
+      <c r="C158" s="133">
         <f>C156+C157</f>
         <v>1255441.5144013944</v>
       </c>
-      <c r="D158" s="123"/>
-      <c r="E158" s="123"/>
+      <c r="D158" s="133"/>
+      <c r="E158" s="133"/>
     </row>
     <row r="160" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B160" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C160" s="110">
+      <c r="C160" s="127">
         <f>J154</f>
         <v>1111010.1897357472</v>
       </c>
-      <c r="D160" s="111"/>
+      <c r="D160" s="128"/>
       <c r="E160" s="33">
         <v>100</v>
       </c>
@@ -34119,21 +37855,21 @@
       <c r="B161" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="C161" s="114">
+      <c r="C161" s="130">
         <v>1200000</v>
       </c>
-      <c r="D161" s="115"/>
+      <c r="D161" s="131"/>
       <c r="E161" s="33"/>
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B162" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="C162" s="114">
+      <c r="C162" s="130">
         <f>C161-C164-C165</f>
         <v>1140000</v>
       </c>
-      <c r="D162" s="115"/>
+      <c r="D162" s="131"/>
       <c r="E162" s="33">
         <f>C162/C160*100</f>
         <v>102.60931992632291</v>
@@ -34143,11 +37879,11 @@
       <c r="B163" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="C163" s="116">
+      <c r="C163" s="132">
         <f>C160-C162</f>
         <v>-28989.810264252825</v>
       </c>
-      <c r="D163" s="116"/>
+      <c r="D163" s="132"/>
       <c r="E163" s="33">
         <f>100-E162</f>
         <v>-2.609319926322911</v>
@@ -34157,11 +37893,11 @@
       <c r="B164" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="C164" s="110">
+      <c r="C164" s="127">
         <f>C161*0.03</f>
         <v>36000</v>
       </c>
-      <c r="D164" s="111"/>
+      <c r="D164" s="128"/>
       <c r="E164" s="33">
         <v>3</v>
       </c>
@@ -34170,17 +37906,22 @@
       <c r="B165" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="C165" s="110">
+      <c r="C165" s="127">
         <f>C161*0.02</f>
         <v>24000</v>
       </c>
-      <c r="D165" s="111"/>
+      <c r="D165" s="128"/>
       <c r="E165" s="33">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="C165:D165"/>
     <mergeCell ref="C160:D160"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
@@ -34194,11 +37935,6 @@
     <mergeCell ref="C156:E156"/>
     <mergeCell ref="C157:E157"/>
     <mergeCell ref="C158:E158"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="C165:D165"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -34239,117 +37975,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
       <c r="M1"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
       <c r="M2"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
       <c r="M3"/>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
       <c r="M4"/>
     </row>
     <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="121" t="s">
+      <c r="A5" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="117" t="s">
+      <c r="A6" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="117"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="113" t="s">
+      <c r="H6" s="122" t="s">
         <v>130</v>
       </c>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="113"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="129" t="s">
         <v>147</v>
       </c>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="113" t="s">
+      <c r="H7" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
     </row>
     <row r="8" spans="1:19" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -37752,12 +41488,12 @@
       <c r="B156" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C156" s="116">
+      <c r="C156" s="132">
         <f>J154</f>
         <v>1114638.6512530155</v>
       </c>
-      <c r="D156" s="116"/>
-      <c r="E156" s="116"/>
+      <c r="D156" s="132"/>
+      <c r="E156" s="132"/>
       <c r="F156" s="65"/>
       <c r="G156" s="66"/>
       <c r="H156" s="65"/>
@@ -37770,33 +41506,33 @@
       <c r="B157" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="C157" s="123">
+      <c r="C157" s="133">
         <f>C156*0.13</f>
         <v>144903.02466289201</v>
       </c>
-      <c r="D157" s="123"/>
-      <c r="E157" s="123"/>
+      <c r="D157" s="133"/>
+      <c r="E157" s="133"/>
     </row>
     <row r="158" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B158" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="C158" s="123">
+      <c r="C158" s="133">
         <f>C156+C157</f>
         <v>1259541.6759159076</v>
       </c>
-      <c r="D158" s="123"/>
-      <c r="E158" s="123"/>
+      <c r="D158" s="133"/>
+      <c r="E158" s="133"/>
     </row>
     <row r="160" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B160" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C160" s="110">
+      <c r="C160" s="127">
         <f>J154</f>
         <v>1114638.6512530155</v>
       </c>
-      <c r="D160" s="111"/>
+      <c r="D160" s="128"/>
       <c r="E160" s="33">
         <v>100</v>
       </c>
@@ -37812,21 +41548,21 @@
       <c r="B161" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="C161" s="114">
+      <c r="C161" s="130">
         <v>1200000</v>
       </c>
-      <c r="D161" s="115"/>
+      <c r="D161" s="131"/>
       <c r="E161" s="33"/>
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B162" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="C162" s="114">
+      <c r="C162" s="130">
         <f>C161-C164-C165</f>
         <v>1140000</v>
       </c>
-      <c r="D162" s="115"/>
+      <c r="D162" s="131"/>
       <c r="E162" s="33">
         <f>C162/C160*100</f>
         <v>102.27529780332618</v>
@@ -37836,11 +41572,11 @@
       <c r="B163" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="C163" s="116">
+      <c r="C163" s="132">
         <f>C160-C162</f>
         <v>-25361.348746984499</v>
       </c>
-      <c r="D163" s="116"/>
+      <c r="D163" s="132"/>
       <c r="E163" s="33">
         <f>100-E162</f>
         <v>-2.2752978033261826</v>
@@ -37850,11 +41586,11 @@
       <c r="B164" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="C164" s="110">
+      <c r="C164" s="127">
         <f>C161*0.03</f>
         <v>36000</v>
       </c>
-      <c r="D164" s="111"/>
+      <c r="D164" s="128"/>
       <c r="E164" s="33">
         <v>3</v>
       </c>
@@ -37863,17 +41599,22 @@
       <c r="B165" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="C165" s="110">
+      <c r="C165" s="127">
         <f>C161*0.02</f>
         <v>24000</v>
       </c>
-      <c r="D165" s="111"/>
+      <c r="D165" s="128"/>
       <c r="E165" s="33">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="C165:D165"/>
     <mergeCell ref="C160:D160"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
@@ -37887,11 +41628,6 @@
     <mergeCell ref="C156:E156"/>
     <mergeCell ref="C157:E157"/>
     <mergeCell ref="C158:E158"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="C165:D165"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
